--- a/data/iartypre11.xlsx
+++ b/data/iartypre11.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="11">
       <c r="A11">
-        <v>0.73123184695051779</v>
+        <v>0.95711634052555183</v>
       </c>
       <c r="B11">
-        <v>0.74503508064516133</v>
+        <v>0.9339568864617952</v>
       </c>
       <c r="C11">
-        <v>0.26876815304948215</v>
+        <v>0.042883659474448228</v>
       </c>
       <c r="D11">
-        <v>0.25496491935483867</v>
+        <v>0.066043113538204717</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0235652149853267</v>
+        <v>0.0042805781624255202</v>
       </c>
       <c r="B12">
-        <v>0.017998965285432187</v>
+        <v>0.0051690251986182016</v>
       </c>
       <c r="C12">
-        <v>0.0235652149853267</v>
+        <v>0.0042805781624255202</v>
       </c>
       <c r="D12">
-        <v>0.017998965285432187</v>
+        <v>0.0051690251986182016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>31.030136894818583</v>
+        <v>223.59510893341974</v>
       </c>
       <c r="B13">
-        <v>41.393217267226468</v>
+        <v>180.68336883160546</v>
       </c>
       <c r="C13">
-        <v>11.405291792026317</v>
+        <v>10.018193301754568</v>
       </c>
       <c r="D13">
-        <v>14.165532035399806</v>
+        <v>12.776705665095141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>7.441638512148415e-146</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>1.6058469064487152e-213</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.6584112151161244e-28</v>
+        <v>2.108428243737347e-23</v>
       </c>
       <c r="D14">
-        <v>2.0891513449683118e-41</v>
+        <v>8.3176751645097156e-37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.68498494497651152</v>
+        <v>0.94872452354985626</v>
       </c>
       <c r="B15">
-        <v>0.70971198328716012</v>
+        <v>0.92382332231143682</v>
       </c>
       <c r="C15">
-        <v>0.22252125107547591</v>
+        <v>0.034491842498752652</v>
       </c>
       <c r="D15">
-        <v>0.21964182199683746</v>
+        <v>0.055909549387846286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.77747874892452407</v>
+        <v>0.96550815750124741</v>
       </c>
       <c r="B16">
-        <v>0.78035817800316254</v>
+        <v>0.94409045061215358</v>
       </c>
       <c r="C16">
-        <v>0.31501505502348837</v>
+        <v>0.051275476450143805</v>
       </c>
       <c r="D16">
-        <v>0.29028801671283988</v>
+        <v>0.076176677688563149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B17">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C17">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D17">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B18">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C18">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D18">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="19">
@@ -182,114 +182,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.41189762498401733</v>
+        <v>0.90591637234149336</v>
       </c>
       <c r="B21">
-        <v>0.37105806451612905</v>
+        <v>0.8354438159997446</v>
       </c>
       <c r="C21">
-        <v>0.58810237501598261</v>
+        <v>0.094083627658506697</v>
       </c>
       <c r="D21">
-        <v>0.62894193548387101</v>
+        <v>0.1645561840002554</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.026006328320114371</v>
+        <v>0.0060339468363570584</v>
       </c>
       <c r="B22">
-        <v>0.019782106838098956</v>
+        <v>0.0073719204931161448</v>
       </c>
       <c r="C22">
-        <v>0.026006328320114371</v>
+        <v>0.0060339468363570584</v>
       </c>
       <c r="D22">
-        <v>0.019782106838098956</v>
+        <v>0.0073719204931161448</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>15.838361337053437</v>
+        <v>150.13661818877281</v>
       </c>
       <c r="B23">
-        <v>18.757257129028197</v>
+        <v>113.32783862493865</v>
       </c>
       <c r="C23">
-        <v>22.613817982183971</v>
+        <v>15.592385914243296</v>
       </c>
       <c r="D23">
-        <v>31.793475822937765</v>
+        <v>22.322023705209109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>3.1811896177878252e-50</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>7.2329757690221474e-67</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.2050886423459279e-90</v>
+        <v>1.48404284469321e-53</v>
       </c>
       <c r="D24">
-        <v>6.3504003458280869e-151</v>
+        <v>2.8025819521847794e-105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.36086002073245238</v>
+        <v>0.89408718115039176</v>
       </c>
       <c r="B25">
-        <v>0.33223553918162496</v>
+        <v>0.82099160763204226</v>
       </c>
       <c r="C25">
-        <v>0.53706477076441772</v>
+        <v>0.082254436467405115</v>
       </c>
       <c r="D25">
-        <v>0.59011941014936697</v>
+        <v>0.15010397563255304</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.46293522923558228</v>
+        <v>0.91774556353259495</v>
       </c>
       <c r="B26">
-        <v>0.40988058985063314</v>
+        <v>0.84989602436744693</v>
       </c>
       <c r="C26">
-        <v>0.63913997926754751</v>
+        <v>0.10591281884960828</v>
       </c>
       <c r="D26">
-        <v>0.66776446081837504</v>
+        <v>0.17900839236795776</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B27">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C27">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D27">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B28">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C28">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D28">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="29">
@@ -308,44 +308,44 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.98095306866129639</v>
+        <v>0.99706416422706501</v>
       </c>
       <c r="B31">
-        <v>0.98347217741935489</v>
+        <v>0.99574638248058256</v>
       </c>
       <c r="C31">
-        <v>0.019046931338703492</v>
+        <v>0.0029358357729350271</v>
       </c>
       <c r="D31">
-        <v>0.016527822580645161</v>
+        <v>0.0042536175194174746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0071445904367661373</v>
+        <v>0.0011233176887888651</v>
       </c>
       <c r="B32">
-        <v>0.0051855427765651234</v>
+        <v>0.0013477556264874881</v>
       </c>
       <c r="C32">
-        <v>0.0071445904367661373</v>
+        <v>0.0011233176887888651</v>
       </c>
       <c r="D32">
-        <v>0.0051855427765651234</v>
+        <v>0.0013477556264874881</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>137.30011220983383</v>
+        <v>887.60657308092095</v>
       </c>
       <c r="B33">
-        <v>189.65655473211655</v>
+        <v>738.81819738767501</v>
       </c>
       <c r="C33">
-        <v>2.6659234713704207</v>
+        <v>2.6135400539275553</v>
       </c>
       <c r="D33">
-        <v>3.1872888322007258</v>
+        <v>3.1560747629770427</v>
       </c>
     </row>
     <row r="34">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.0078103276661081623</v>
+        <v>0.0089878953679824927</v>
       </c>
       <c r="D34">
-        <v>0.0014838537197289559</v>
+        <v>0.0016086080312236167</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.96693175912606466</v>
+        <v>0.99486196721250653</v>
       </c>
       <c r="B35">
-        <v>0.97329551284747851</v>
+        <v>0.99310418833850944</v>
       </c>
       <c r="C35">
-        <v>0.0050256218034717987</v>
+        <v>0.00073363875837659112</v>
       </c>
       <c r="D35">
-        <v>0.0063511580087688303</v>
+        <v>0.0016114233773443318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.99497437819652812</v>
+        <v>0.99926636124162349</v>
       </c>
       <c r="B36">
-        <v>0.99364884199123127</v>
+        <v>0.99838857662265568</v>
       </c>
       <c r="C36">
-        <v>0.033068240873935187</v>
+        <v>0.0051380327874934635</v>
       </c>
       <c r="D36">
-        <v>0.026704487152521494</v>
+        <v>0.0068958116614906174</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B37">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C37">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D37">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B38">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C38">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D38">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="39">
@@ -434,114 +434,114 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.87591745940416832</v>
+        <v>0.98042342977887054</v>
       </c>
       <c r="B41">
-        <v>0.90043467741935479</v>
+        <v>0.97470649432706724</v>
       </c>
       <c r="C41">
-        <v>0.12408254059583172</v>
+        <v>0.019576570221129633</v>
       </c>
       <c r="D41">
-        <v>0.099565322580645155</v>
+        <v>0.025293505672932731</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.01744038648344769</v>
+        <v>0.0029293450286864771</v>
       </c>
       <c r="B42">
-        <v>0.012225313667301063</v>
+        <v>0.0032672048905747139</v>
       </c>
       <c r="C42">
-        <v>0.01744038648344769</v>
+        <v>0.0029293450286864771</v>
       </c>
       <c r="D42">
-        <v>0.012225313667301063</v>
+        <v>0.0032672048905747139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>50.223511975235382</v>
+        <v>334.69032161721623</v>
       </c>
       <c r="B43">
-        <v>73.653298551164326</v>
+        <v>298.33038544320146</v>
       </c>
       <c r="C43">
-        <v>7.1146669091075418</v>
+        <v>6.6829171809466903</v>
       </c>
       <c r="D43">
-        <v>8.1441937025265556</v>
+        <v>7.7416343694574676</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.2548641747470298e-267</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2.2325109482856422e-12</v>
+        <v>2.5987177062414003e-11</v>
       </c>
       <c r="D44">
-        <v>1.2163705456221547e-15</v>
+        <v>1.1805379033728884e-14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.84169057691695104</v>
+        <v>0.97468062438982672</v>
       </c>
       <c r="B45">
-        <v>0.87644241241667198</v>
+        <v>0.96830133492489323</v>
       </c>
       <c r="C45">
-        <v>0.089855658108614428</v>
+        <v>0.013833764832085801</v>
       </c>
       <c r="D45">
-        <v>0.075573057577962316</v>
+        <v>0.018888346270758739</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.9101443418913856</v>
+        <v>0.98616623516791435</v>
       </c>
       <c r="B46">
-        <v>0.9244269424220376</v>
+        <v>0.98111165372924125</v>
       </c>
       <c r="C46">
-        <v>0.15830942308304902</v>
+        <v>0.025319375610173465</v>
       </c>
       <c r="D46">
-        <v>0.12355758758332799</v>
+        <v>0.03169866507510672</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B47">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C47">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D47">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B48">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C48">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D48">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="49">
@@ -560,162 +560,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.75471698113207553</v>
+        <v>0.98836689038031322</v>
       </c>
       <c r="B51">
-        <v>0.70823529411764707</v>
+        <v>0.9312638580931264</v>
       </c>
       <c r="C51">
-        <v>0.76600985221674878</v>
+        <v>0.89978902953586493</v>
       </c>
       <c r="D51">
-        <v>0.24528301886792453</v>
+        <v>0.011633109619686801</v>
       </c>
       <c r="E51">
-        <v>0.29176470588235293</v>
+        <v>0.068736141906873618</v>
       </c>
       <c r="F51">
-        <v>0.23399014778325125</v>
+        <v>0.100210970464135</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.041790047962489682</v>
+        <v>0.0022681315552224015</v>
       </c>
       <c r="B52">
-        <v>0.022050106697553608</v>
+        <v>0.005956767969855105</v>
       </c>
       <c r="C52">
-        <v>0.021011301118415475</v>
+        <v>0.0097526763535849895</v>
       </c>
       <c r="D52">
-        <v>0.041790047962489682</v>
+        <v>0.0022681315552224015</v>
       </c>
       <c r="E52">
-        <v>0.022050106697553608</v>
+        <v>0.005956767969855105</v>
       </c>
       <c r="F52">
-        <v>0.021011301118415475</v>
+        <v>0.0097526763535849895</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>18.059729957943617</v>
+        <v>435.76259415137804</v>
       </c>
       <c r="B53">
-        <v>32.119359050367933</v>
+        <v>156.3371047530963</v>
       </c>
       <c r="C53">
-        <v>36.457040327948803</v>
+        <v>92.260728943918167</v>
       </c>
       <c r="D53">
-        <v>5.8694122363316747</v>
+        <v>5.1289395418451011</v>
       </c>
       <c r="E53">
-        <v>13.231895422742936</v>
+        <v>11.53916725558568</v>
       </c>
       <c r="F53">
-        <v>11.136394955482755</v>
+        <v>10.275227725289829</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>9.1824733503651228e-63</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>4.3669697882202628e-153</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1.0849516173463031e-181</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>6.0708792350840176e-09</v>
+        <v>3.0241734034961938e-07</v>
       </c>
       <c r="E54">
-        <v>9.307220811930437e-37</v>
+        <v>2.0327302261773369e-30</v>
       </c>
       <c r="F54">
-        <v>3.9102204642140602e-27</v>
+        <v>1.5982609573224921e-24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.67270371484896774</v>
+        <v>0.98392035438307279</v>
       </c>
       <c r="B55">
-        <v>0.66496180293188423</v>
+        <v>0.91958597144489274</v>
       </c>
       <c r="C55">
-        <v>0.72477502436668506</v>
+        <v>0.88066949196944788</v>
       </c>
       <c r="D55">
-        <v>0.1632697525848168</v>
+        <v>0.0071865736224464207</v>
       </c>
       <c r="E55">
-        <v>0.24849121469659013</v>
+        <v>0.057058255258639917</v>
       </c>
       <c r="F55">
-        <v>0.19275531993318754</v>
+        <v>0.081091432897717919</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.83673024741518331</v>
+        <v>0.99281342637755365</v>
       </c>
       <c r="B56">
-        <v>0.75150878530340992</v>
+        <v>0.94294174474136006</v>
       </c>
       <c r="C56">
-        <v>0.80724468006681249</v>
+        <v>0.91890856710228197</v>
       </c>
       <c r="D56">
-        <v>0.32729628515103226</v>
+        <v>0.01607964561692718</v>
       </c>
       <c r="E56">
-        <v>0.33503819706811572</v>
+        <v>0.08041402855510732</v>
       </c>
       <c r="F56">
-        <v>0.27522497563331494</v>
+        <v>0.11933050803055209</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B57">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C57">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D57">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E57">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F57">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B58">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C58">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D58">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E58">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F58">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="59">
@@ -740,162 +740,162 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.43396226415094341</v>
+        <v>0.97315436241610731</v>
       </c>
       <c r="B61">
-        <v>0.44235294117647062</v>
+        <v>0.86862527716186266</v>
       </c>
       <c r="C61">
-        <v>0.32266009852216748</v>
+        <v>0.70991561181434604</v>
       </c>
       <c r="D61">
-        <v>0.56603773584905659</v>
+        <v>0.026845637583892617</v>
       </c>
       <c r="E61">
-        <v>0.55764705882352938</v>
+        <v>0.13137472283813748</v>
       </c>
       <c r="F61">
-        <v>0.67733990147783252</v>
+        <v>0.29008438818565402</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.04813885355063157</v>
+        <v>0.0034189202036111806</v>
       </c>
       <c r="B62">
-        <v>0.024091825150452828</v>
+        <v>0.0079534191645170855</v>
       </c>
       <c r="C62">
-        <v>0.023201333373429348</v>
+        <v>0.014738774456713632</v>
       </c>
       <c r="D62">
-        <v>0.04813885355063157</v>
+        <v>0.0034189202036111806</v>
       </c>
       <c r="E62">
-        <v>0.024091825150452828</v>
+        <v>0.0079534191645170855</v>
       </c>
       <c r="F62">
-        <v>0.023201333373429348</v>
+        <v>0.014738774456713632</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>9.0148026415816034</v>
+        <v>284.63792790139655</v>
       </c>
       <c r="B63">
-        <v>18.361122016036056</v>
+        <v>109.21406997346452</v>
       </c>
       <c r="C63">
-        <v>13.906963592518547</v>
+        <v>48.166529306714082</v>
       </c>
       <c r="D63">
-        <v>11.758438228149917</v>
+        <v>7.8520807696936989</v>
       </c>
       <c r="E63">
-        <v>23.146733605322048</v>
+        <v>16.518018241040899</v>
       </c>
       <c r="F63">
-        <v>29.194007541546572</v>
+        <v>19.681717027260582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.0936354107414427e-18</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>1.5800036874105318e-64</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4.2473554166981628e-40</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>7.2449572867950063e-30</v>
+        <v>4.974050141992708e-15</v>
       </c>
       <c r="E64">
-        <v>4.7996746933892297e-94</v>
+        <v>1.0263687258308285e-59</v>
       </c>
       <c r="F64">
-        <v>1.1668129432420519e-133</v>
+        <v>4.1253887039408979e-83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.33948942175662072</v>
+        <v>0.96645177423419792</v>
       </c>
       <c r="B65">
-        <v>0.39507256300883459</v>
+        <v>0.85303307549492757</v>
       </c>
       <c r="C65">
-        <v>0.27712731679896474</v>
+        <v>0.68102112770645307</v>
       </c>
       <c r="D65">
-        <v>0.4715648934547339</v>
+        <v>0.020143049401983186</v>
       </c>
       <c r="E65">
-        <v>0.5103666806558933</v>
+        <v>0.11578252117120241</v>
       </c>
       <c r="F65">
-        <v>0.63180711975462978</v>
+        <v>0.26118990407776105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.52843510654526615</v>
+        <v>0.9798569505980167</v>
       </c>
       <c r="B66">
-        <v>0.48963331934410664</v>
+        <v>0.88421747882879775</v>
       </c>
       <c r="C66">
-        <v>0.36819288024537022</v>
+        <v>0.73881009592223901</v>
       </c>
       <c r="D66">
-        <v>0.66051057824337933</v>
+        <v>0.033548225765802048</v>
       </c>
       <c r="E66">
-        <v>0.60492743699116547</v>
+        <v>0.14696692450507254</v>
       </c>
       <c r="F66">
-        <v>0.72287268320103526</v>
+        <v>0.31897887229354699</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B67">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C67">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D67">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E67">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F67">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B68">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C68">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D68">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E68">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F68">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="69">
@@ -920,62 +920,62 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.97169811320754707</v>
+        <v>0.99865771812080539</v>
       </c>
       <c r="B71">
-        <v>0.97647058823529398</v>
+        <v>0.99445676274944572</v>
       </c>
       <c r="C71">
-        <v>0.99014778325123154</v>
+        <v>0.99578059071729963</v>
       </c>
       <c r="D71">
-        <v>0.028301886792452831</v>
+        <v>0.0013422818791946308</v>
       </c>
       <c r="E71">
-        <v>0.023529411764705882</v>
+        <v>0.0055432372505543242</v>
       </c>
       <c r="F71">
-        <v>0.009852216748768473</v>
+        <v>0.0042194092827004216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.016107214484726438</v>
+        <v>0.00077444651768074422</v>
       </c>
       <c r="B72">
-        <v>0.0073525951475672978</v>
+        <v>0.0017480603395915058</v>
       </c>
       <c r="C72">
-        <v>0.0049017817645977688</v>
+        <v>0.0021052490827519039</v>
       </c>
       <c r="D72">
-        <v>0.016107214484726438</v>
+        <v>0.00077444651768074422</v>
       </c>
       <c r="E72">
-        <v>0.0073525951475672978</v>
+        <v>0.0017480603395915058</v>
       </c>
       <c r="F72">
-        <v>0.0049017817645977688</v>
+        <v>0.0021052490827519039</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>60.326887316795435</v>
+        <v>1289.5115354272784</v>
       </c>
       <c r="B73">
-        <v>132.80624985293417</v>
+        <v>568.89155381320222</v>
       </c>
       <c r="C73">
-        <v>201.99752473730973</v>
+        <v>472.99894291636599</v>
       </c>
       <c r="D73">
-        <v>1.7570938053435565</v>
+        <v>1.7332144293377396</v>
       </c>
       <c r="E73">
-        <v>3.2001505988658843</v>
+        <v>3.1710788952798343</v>
       </c>
       <c r="F73">
-        <v>2.0099256192767139</v>
+        <v>2.0042328089676524</v>
       </c>
     </row>
     <row r="74">
@@ -989,93 +989,93 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.079229440194106493</v>
+        <v>0.083119412566109843</v>
       </c>
       <c r="E74">
-        <v>0.001419890388080682</v>
+        <v>0.0015279491430103371</v>
       </c>
       <c r="F74">
-        <v>0.044726221170273091</v>
+        <v>0.045099136149179597</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.94008759024761368</v>
+        <v>0.99713946213125493</v>
       </c>
       <c r="B75">
-        <v>0.96204106797605482</v>
+        <v>0.99102979520541379</v>
       </c>
       <c r="C75">
-        <v>0.98052800168308207</v>
+        <v>0.99165337604667803</v>
       </c>
       <c r="D75">
-        <v>-0.0033086361674806025</v>
+        <v>-0.00017597411035586309</v>
       </c>
       <c r="E75">
-        <v>0.0090998915054666812</v>
+        <v>0.0021162697065223771</v>
       </c>
       <c r="F75">
-        <v>0.00023243518061904882</v>
+        <v>9.2194612078842775e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.0033086361674806</v>
+        <v>1.000175974110356</v>
       </c>
       <c r="B76">
-        <v>0.99090010849453314</v>
+        <v>0.99788373029347766</v>
       </c>
       <c r="C76">
-        <v>0.999767564819381</v>
+        <v>0.99990780538792123</v>
       </c>
       <c r="D76">
-        <v>0.059912409752386264</v>
+        <v>0.0028605378687451247</v>
       </c>
       <c r="E76">
-        <v>0.037958932023945083</v>
+        <v>0.0089702047945862708</v>
       </c>
       <c r="F76">
-        <v>0.019471998316917899</v>
+        <v>0.0083466239533220004</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B77">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C77">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D77">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E77">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F77">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B78">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C78">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D78">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E78">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F78">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="79">
@@ -1100,162 +1100,162 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.839622641509434</v>
+        <v>0.99239373601789693</v>
       </c>
       <c r="B81">
-        <v>0.87294117647058811</v>
+        <v>0.97006651884700668</v>
       </c>
       <c r="C81">
-        <v>0.92118226600985209</v>
+        <v>0.9662447257383967</v>
       </c>
       <c r="D81">
-        <v>0.16037735849056603</v>
+        <v>0.0076062639821029079</v>
       </c>
       <c r="E81">
-        <v>0.12705882352941175</v>
+        <v>0.029933481152993345</v>
       </c>
       <c r="F81">
-        <v>0.078817733990147784</v>
+        <v>0.033755274261603373</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.035641885124497459</v>
+        <v>0.0018377606169363179</v>
       </c>
       <c r="B82">
-        <v>0.016154757368340794</v>
+        <v>0.0040120016637346604</v>
       </c>
       <c r="C82">
-        <v>0.01337278123015447</v>
+        <v>0.005865569972154077</v>
       </c>
       <c r="D82">
-        <v>0.035641885124497459</v>
+        <v>0.0018377606169363179</v>
       </c>
       <c r="E82">
-        <v>0.016154757368340794</v>
+        <v>0.0040120016637346604</v>
       </c>
       <c r="F82">
-        <v>0.01337278123015447</v>
+        <v>0.005865569972154077</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>23.557189485814899</v>
+        <v>540.00163398445784</v>
       </c>
       <c r="B83">
-        <v>54.036167586232537</v>
+        <v>241.79115567564318</v>
       </c>
       <c r="C83">
-        <v>68.884867714179407</v>
+        <v>164.73159988296109</v>
       </c>
       <c r="D83">
-        <v>4.4996878793129582</v>
+        <v>4.1388763650747444</v>
       </c>
       <c r="E83">
-        <v>7.865102559721179</v>
+        <v>7.4609842322769886</v>
       </c>
       <c r="F83">
-        <v>5.8938924247426243</v>
+        <v>5.7548157164353215</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.1174743438521529e-96</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>1.0278905738393283e-289</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>7.6630251197086366e-06</v>
+        <v>3.5477041524947461e-05</v>
       </c>
       <c r="E84">
-        <v>1.0155974645405422e-14</v>
+        <v>1.0075883779174712e-13</v>
       </c>
       <c r="F84">
-        <v>5.2638349697130436e-09</v>
+        <v>9.1919904931024246e-09</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.76967518851366101</v>
+        <v>0.98879091645537964</v>
       </c>
       <c r="B85">
-        <v>0.84123735026349811</v>
+        <v>0.96220123000266744</v>
       </c>
       <c r="C85">
-        <v>0.89493808775576555</v>
+        <v>0.95474562729965651</v>
       </c>
       <c r="D85">
-        <v>0.090429905494793003</v>
+        <v>0.0040034444195856207</v>
       </c>
       <c r="E85">
-        <v>0.095354997322321694</v>
+        <v>0.022068192308654151</v>
       </c>
       <c r="F85">
-        <v>0.052573555736061275</v>
+        <v>0.022256175822863149</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.90957009450520698</v>
+        <v>0.99599655558041422</v>
       </c>
       <c r="B86">
-        <v>0.90464500267767811</v>
+        <v>0.97793180769134591</v>
       </c>
       <c r="C86">
-        <v>0.94742644426393863</v>
+        <v>0.9777438241771369</v>
       </c>
       <c r="D86">
-        <v>0.23032481148633904</v>
+        <v>0.011209083544620194</v>
       </c>
       <c r="E86">
-        <v>0.15876264973650181</v>
+        <v>0.037798769997332539</v>
       </c>
       <c r="F86">
-        <v>0.10506191224423429</v>
+        <v>0.045254372700343597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B87">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C87">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D87">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E87">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F87">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B88">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C88">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D88">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E88">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F88">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="89">
@@ -1280,306 +1280,306 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.8252083894608544</v>
+        <v>0.95385628149283419</v>
       </c>
       <c r="B91">
-        <v>0.58786352503368011</v>
+        <v>0.91371190013340953</v>
       </c>
       <c r="C91">
-        <v>0.7364854651162791</v>
+        <v>0.94929498571606685</v>
       </c>
       <c r="D91">
-        <v>0.66203302253302265</v>
+        <v>0.9444807965367964</v>
       </c>
       <c r="E91">
-        <v>0.69110215053763446</v>
+        <v>0.96398154545454562</v>
       </c>
       <c r="F91">
-        <v>0.81449142857142864</v>
+        <v>0.95670071123755351</v>
       </c>
       <c r="G91">
-        <v>0.17479161053914558</v>
+        <v>0.046143718507165712</v>
       </c>
       <c r="H91">
-        <v>0.41213647496632</v>
+        <v>0.086288099866590431</v>
       </c>
       <c r="I91">
-        <v>0.2635145348837209</v>
+        <v>0.050705014283933147</v>
       </c>
       <c r="J91">
-        <v>0.33796697746697746</v>
+        <v>0.055519203463203472</v>
       </c>
       <c r="K91">
-        <v>0.30889784946236559</v>
+        <v>0.036018454545454548</v>
       </c>
       <c r="L91">
-        <v>0.18550857142857141</v>
+        <v>0.04329928876244666</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.017570663160495908</v>
+        <v>0.0049887548412171964</v>
       </c>
       <c r="B92">
-        <v>0.033097665135724617</v>
+        <v>0.0084506680849793618</v>
       </c>
       <c r="C92">
-        <v>0.048020622139300785</v>
+        <v>0.00992239558227433</v>
       </c>
       <c r="D92">
-        <v>0.072647639217868265</v>
+        <v>0.012455085910163385</v>
       </c>
       <c r="E92">
-        <v>0.059742082969258897</v>
+        <v>0.0083218302514754938</v>
       </c>
       <c r="F92">
-        <v>0.095700216857585646</v>
+        <v>0.020957472961308482</v>
       </c>
       <c r="G92">
-        <v>0.017570663160495908</v>
+        <v>0.0049887548412171964</v>
       </c>
       <c r="H92">
-        <v>0.033097665135724617</v>
+        <v>0.0084506680849793618</v>
       </c>
       <c r="I92">
-        <v>0.048020622139300785</v>
+        <v>0.00992239558227433</v>
       </c>
       <c r="J92">
-        <v>0.072647639217868265</v>
+        <v>0.012455085910163385</v>
       </c>
       <c r="K92">
-        <v>0.059742082969258897</v>
+        <v>0.0083218302514754938</v>
       </c>
       <c r="L92">
-        <v>0.095700216857585646</v>
+        <v>0.020957472961308482</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>46.96512487452204</v>
+        <v>191.20127403576817</v>
       </c>
       <c r="B93">
-        <v>17.761480232004583</v>
+        <v>108.1230372492663</v>
       </c>
       <c r="C93">
-        <v>15.336858047774616</v>
+        <v>95.671955209275907</v>
       </c>
       <c r="D93">
-        <v>9.1129323631233756</v>
+        <v>75.830933913197455</v>
       </c>
       <c r="E93">
-        <v>11.568095991786066</v>
+        <v>115.83768429831019</v>
       </c>
       <c r="F93">
-        <v>8.510862935488408</v>
+        <v>45.649621641111345</v>
       </c>
       <c r="G93">
-        <v>9.9479233619439729</v>
+        <v>9.2495462246261031</v>
       </c>
       <c r="H93">
-        <v>12.452131389820376</v>
+        <v>10.21080215183971</v>
       </c>
       <c r="I93">
-        <v>5.4875285480330485</v>
+        <v>5.1101585160053622</v>
       </c>
       <c r="J93">
-        <v>4.6521398507310581</v>
+        <v>4.4575528313216726</v>
       </c>
       <c r="K93">
-        <v>5.1705235925790065</v>
+        <v>4.3281890470030113</v>
       </c>
       <c r="L93">
-        <v>1.9384341804014118</v>
+        <v>2.0660548551051674</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>3.9459969716670443e-248</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>4.9558166156859311e-61</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>1.6128398400932854e-47</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>4.7820283482016667e-19</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>5.1013639653402737e-29</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>6.8135435912079529e-17</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>3.1364761217510936e-22</v>
+        <v>3.2686731615879578e-20</v>
       </c>
       <c r="H94">
-        <v>4.861671684205009e-33</v>
+        <v>3.0687432451702462e-24</v>
       </c>
       <c r="I94">
-        <v>5.2508138613377943e-08</v>
+        <v>3.3390850138847215e-07</v>
       </c>
       <c r="J94">
-        <v>3.7588730813391221e-06</v>
+        <v>8.4719651807395231e-06</v>
       </c>
       <c r="K94">
-        <v>2.8559021420938849e-07</v>
+        <v>1.5328547446402663e-05</v>
       </c>
       <c r="L94">
-        <v>0.052871284538954837</v>
+        <v>0.038874856705687175</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.79072583806857089</v>
+        <v>0.94407612657553952</v>
       </c>
       <c r="B95">
-        <v>0.52290912185707272</v>
+        <v>0.8971448717553282</v>
       </c>
       <c r="C95">
-        <v>0.64224465270740183</v>
+        <v>0.92984272377215349</v>
       </c>
       <c r="D95">
-        <v>0.51946151399199214</v>
+        <v>0.92006334697539627</v>
       </c>
       <c r="E95">
-        <v>0.57385788790210901</v>
+        <v>0.94766709592849885</v>
       </c>
       <c r="F95">
-        <v>0.62667907249236332</v>
+        <v>0.91561484136414018</v>
       </c>
       <c r="G95">
-        <v>0.14030905914686209</v>
+        <v>0.036363563589871084</v>
       </c>
       <c r="H95">
-        <v>0.34718207178971261</v>
+        <v>0.069721071488509145</v>
       </c>
       <c r="I95">
-        <v>0.16927372247484362</v>
+        <v>0.031252752340019799</v>
       </c>
       <c r="J95">
-        <v>0.19539546892594695</v>
+        <v>0.031101753901803371</v>
       </c>
       <c r="K95">
-        <v>0.19165358682684011</v>
+        <v>0.019704005019407816</v>
       </c>
       <c r="L95">
-        <v>-0.0023037846504938841</v>
+        <v>0.0022134188890333625</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.85969094085313791</v>
+        <v>0.96363643641012886</v>
       </c>
       <c r="B96">
-        <v>0.6528179282102875</v>
+        <v>0.93027892851149085</v>
       </c>
       <c r="C96">
-        <v>0.83072627752515638</v>
+        <v>0.96874724765998022</v>
       </c>
       <c r="D96">
-        <v>0.80460453107405316</v>
+        <v>0.96889824609819653</v>
       </c>
       <c r="E96">
-        <v>0.80834641317315992</v>
+        <v>0.98029599498059239</v>
       </c>
       <c r="F96">
-        <v>1.0023037846504939</v>
+        <v>0.99778658111096685</v>
       </c>
       <c r="G96">
-        <v>0.20927416193142906</v>
+        <v>0.055923873424460341</v>
       </c>
       <c r="H96">
-        <v>0.47709087814292739</v>
+        <v>0.10285512824467172</v>
       </c>
       <c r="I96">
-        <v>0.35775534729259817</v>
+        <v>0.070157276227846496</v>
       </c>
       <c r="J96">
-        <v>0.48053848600800797</v>
+        <v>0.079936653024603566</v>
       </c>
       <c r="K96">
-        <v>0.4261421120978911</v>
+        <v>0.052332904071501277</v>
       </c>
       <c r="L96">
-        <v>0.37332092750763668</v>
+        <v>0.084385158635859964</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="G97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="H97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="I97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="J97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="K97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="L97">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="G98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="H98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="I98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="J98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="K98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="L98">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="99">
@@ -1622,306 +1622,306 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.29966313454536903</v>
+        <v>0.81770945981554666</v>
       </c>
       <c r="B101">
-        <v>0.55218400914331145</v>
+        <v>0.90634502572898801</v>
       </c>
       <c r="C101">
-        <v>0.43271839323467232</v>
+        <v>0.89055783014316447</v>
       </c>
       <c r="D101">
-        <v>0.46718741258741259</v>
+        <v>0.91861058008658003</v>
       </c>
       <c r="E101">
-        <v>0.43388509984639018</v>
+        <v>0.93687667528948015</v>
       </c>
       <c r="F101">
-        <v>0.21635142857142858</v>
+        <v>0.83361577931314768</v>
       </c>
       <c r="G101">
-        <v>0.70033686545463092</v>
+        <v>0.18229054018445323</v>
       </c>
       <c r="H101">
-        <v>0.44781599085668855</v>
+        <v>0.09365497427101202</v>
       </c>
       <c r="I101">
-        <v>0.56728160676532768</v>
+        <v>0.10944216985683544</v>
       </c>
       <c r="J101">
-        <v>0.5328125874125873</v>
+        <v>0.081389419913419914</v>
       </c>
       <c r="K101">
-        <v>0.56611490015360988</v>
+        <v>0.063123324710519832</v>
       </c>
       <c r="L101">
-        <v>0.78364857142857147</v>
+        <v>0.1663842206868523</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.020980376207503409</v>
+        <v>0.0086224694837250121</v>
       </c>
       <c r="B102">
-        <v>0.033432425285667311</v>
+        <v>0.0086915069307535488</v>
       </c>
       <c r="C102">
-        <v>0.054128499361364865</v>
+        <v>0.013727230195849887</v>
       </c>
       <c r="D102">
-        <v>0.079557454488598633</v>
+        <v>0.015435293320613134</v>
       </c>
       <c r="E102">
-        <v>0.067962650094644667</v>
+        <v>0.010552621017938977</v>
       </c>
       <c r="F102">
-        <v>0.098153820225991562</v>
+        <v>0.036414886891013798</v>
       </c>
       <c r="G102">
-        <v>0.020980376207503409</v>
+        <v>0.0086224694837250121</v>
       </c>
       <c r="H102">
-        <v>0.033432425285667311</v>
+        <v>0.0086915069307535488</v>
       </c>
       <c r="I102">
-        <v>0.054128499361364865</v>
+        <v>0.013727230195849887</v>
       </c>
       <c r="J102">
-        <v>0.079557454488598633</v>
+        <v>0.015435293320613134</v>
       </c>
       <c r="K102">
-        <v>0.067962650094644667</v>
+        <v>0.010552621017938977</v>
       </c>
       <c r="L102">
-        <v>0.098153820225991562</v>
+        <v>0.036414886891013798</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>14.283020074644691</v>
+        <v>94.834717752145195</v>
       </c>
       <c r="B103">
-        <v>16.516420942396788</v>
+        <v>104.27938825222894</v>
       </c>
       <c r="C103">
-        <v>7.9942802468219245</v>
+        <v>64.875274723112327</v>
       </c>
       <c r="D103">
-        <v>5.872327308490811</v>
+        <v>59.513645837868026</v>
       </c>
       <c r="E103">
-        <v>6.3841698233097528</v>
+        <v>88.781419677332522</v>
       </c>
       <c r="F103">
-        <v>2.2042079266328729</v>
+        <v>22.89216994709</v>
       </c>
       <c r="G103">
-        <v>33.380567561231949</v>
+        <v>21.14133781842061</v>
       </c>
       <c r="H103">
-        <v>13.39466063350989</v>
+        <v>10.775458734276381</v>
       </c>
       <c r="I103">
-        <v>10.48027588901226</v>
+        <v>7.9726331019001035</v>
       </c>
       <c r="J103">
-        <v>6.6972050681805637</v>
+        <v>5.2729428733776009</v>
       </c>
       <c r="K103">
-        <v>8.3297943703672424</v>
+        <v>5.9817674304054931</v>
       </c>
       <c r="L103">
-        <v>7.9838825388994685</v>
+        <v>4.5691263901168782</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>5.2541394188432387e-42</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>5.8554046950204404e-54</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>3.8326459706531402e-15</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>5.9687942987533405e-09</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2.7114549096967985e-10</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.027752975229126182</v>
+        <v>2.2939797623890572e-110</v>
       </c>
       <c r="G104">
-        <v>1.9189163154291526e-161</v>
+        <v>4.4380755216358458e-95</v>
       </c>
       <c r="H104">
-        <v>1.4908454847176234e-37</v>
+        <v>8.8501681801660077e-27</v>
       </c>
       <c r="I104">
-        <v>2.2511825401077286e-24</v>
+        <v>1.9109862864062229e-15</v>
       </c>
       <c r="J104">
-        <v>3.6640289294342031e-11</v>
+        <v>1.3992476585567289e-07</v>
       </c>
       <c r="K104">
-        <v>2.8657240550570949e-16</v>
+        <v>2.3613143579221318e-09</v>
       </c>
       <c r="L104">
-        <v>4.147437078010088e-15</v>
+        <v>5.0158528377335869e-06</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.25848899705286815</v>
+        <v>0.80080562509034681</v>
       </c>
       <c r="B105">
-        <v>0.4865726367920607</v>
+        <v>0.88930584722592698</v>
       </c>
       <c r="C105">
-        <v>0.32649082834617843</v>
+        <v>0.86364641794235564</v>
       </c>
       <c r="D105">
-        <v>0.31105534244391264</v>
+        <v>0.88835061248459479</v>
       </c>
       <c r="E105">
-        <v>0.30050791577326363</v>
+        <v>0.91618889414492477</v>
       </c>
       <c r="F105">
-        <v>0.023723858435015843</v>
+        <v>0.7622265757091915</v>
       </c>
       <c r="G105">
-        <v>0.65916272796213005</v>
+        <v>0.16538670545925338</v>
       </c>
       <c r="H105">
-        <v>0.3822046185054378</v>
+        <v>0.076615795767950995</v>
       </c>
       <c r="I105">
-        <v>0.4610540418768338</v>
+        <v>0.082530757656026618</v>
       </c>
       <c r="J105">
-        <v>0.37668051726908736</v>
+        <v>0.051129452311434662</v>
       </c>
       <c r="K105">
-        <v>0.43273771608048339</v>
+        <v>0.042435543565964448</v>
       </c>
       <c r="L105">
-        <v>0.59102100129215873</v>
+        <v>0.094995017082896163</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.3408372720378699</v>
+        <v>0.83461329454074651</v>
       </c>
       <c r="B106">
-        <v>0.61779538149456215</v>
+        <v>0.92338420423204903</v>
       </c>
       <c r="C106">
-        <v>0.53894595812316615</v>
+        <v>0.91746924234397331</v>
       </c>
       <c r="D106">
-        <v>0.62331948273091253</v>
+        <v>0.94887054768856527</v>
       </c>
       <c r="E106">
-        <v>0.56726228391951672</v>
+        <v>0.95756445643403554</v>
       </c>
       <c r="F106">
-        <v>0.40897899870784132</v>
+        <v>0.90500498291710385</v>
       </c>
       <c r="G106">
-        <v>0.74151100294713179</v>
+        <v>0.19919437490965308</v>
       </c>
       <c r="H106">
-        <v>0.51342736320793925</v>
+        <v>0.11069415277407305</v>
       </c>
       <c r="I106">
-        <v>0.67350917165382151</v>
+        <v>0.13635358205764428</v>
       </c>
       <c r="J106">
-        <v>0.68894465755608725</v>
+        <v>0.11164938751540517</v>
       </c>
       <c r="K106">
-        <v>0.69949208422673637</v>
+        <v>0.083811105855075216</v>
       </c>
       <c r="L106">
-        <v>0.97627614156498421</v>
+        <v>0.23777342429080844</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="G107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="H107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="I107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="J107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="K107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="L107">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="G108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="H108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="I108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="J108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="K108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="L108">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="109">
@@ -1964,16 +1964,16 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.98419904602156261</v>
+        <v>0.9957906317388614</v>
       </c>
       <c r="B111">
-        <v>0.97292519269418487</v>
+        <v>0.99449253478178012</v>
       </c>
       <c r="C111">
-        <v>0.97937473572938694</v>
+        <v>0.99576986876128204</v>
       </c>
       <c r="D111">
-        <v>0.95773636363636361</v>
+        <v>0.99466888888888882</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -1982,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0.015800953978437313</v>
+        <v>0.0042093682611384475</v>
       </c>
       <c r="H111">
-        <v>0.027074807305815057</v>
+        <v>0.0055074652182199356</v>
       </c>
       <c r="I111">
-        <v>0.020625264270613109</v>
+        <v>0.0042301312387178613</v>
       </c>
       <c r="J111">
-        <v>0.042263636363636364</v>
+        <v>0.0053311111111111111</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -2002,16 +2002,16 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.005942625983848906</v>
+        <v>0.0015949102539949554</v>
       </c>
       <c r="B112">
-        <v>0.010252074874535293</v>
+        <v>0.0021253424777669967</v>
       </c>
       <c r="C112">
-        <v>0.014432309188709939</v>
+        <v>0.0029946320111888477</v>
       </c>
       <c r="D112">
-        <v>0.040296796158206902</v>
+        <v>0.0052715437542348136</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2020,46 +2020,46 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.005942625983848906</v>
+        <v>0.0015949102539949554</v>
       </c>
       <c r="H112">
-        <v>0.010252074874535293</v>
+        <v>0.0021253424777669967</v>
       </c>
       <c r="I112">
-        <v>0.014432309188709939</v>
+        <v>0.0029946320111888477</v>
       </c>
       <c r="J112">
-        <v>0.040296796158206902</v>
+        <v>0.0052715437542348136</v>
       </c>
       <c r="K112"/>
       <c r="L112"/>
     </row>
     <row r="113">
       <c r="A113">
-        <v>165.61685838827077</v>
+        <v>624.35527594395353</v>
       </c>
       <c r="B113">
-        <v>94.900320627855905</v>
+        <v>467.92107398457938</v>
       </c>
       <c r="C113">
-        <v>67.859877648375843</v>
+        <v>332.51827437921776</v>
       </c>
       <c r="D113">
-        <v>23.767059789970663</v>
+        <v>188.68645225411188</v>
       </c>
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113">
-        <v>2.6589177951602112</v>
+        <v>2.6392508610404617</v>
       </c>
       <c r="H113">
-        <v>2.640910024278603</v>
+        <v>2.5913307035609554</v>
       </c>
       <c r="I113">
-        <v>1.4291035482213599</v>
+        <v>1.4125713018871153</v>
       </c>
       <c r="J113">
-        <v>1.0488088481701514</v>
+        <v>1.0112997936948631</v>
       </c>
       <c r="K113"/>
       <c r="L113"/>
@@ -2075,149 +2075,149 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>4.9825813707688005e-98</v>
+        <v>0</v>
       </c>
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114">
-        <v>0.0079733339375141002</v>
+        <v>0.0083348126969081376</v>
       </c>
       <c r="H114">
-        <v>0.0084064239889864063</v>
+        <v>0.0095884360281183779</v>
       </c>
       <c r="I114">
-        <v>0.15330882744387792</v>
+        <v>0.1578442508039313</v>
       </c>
       <c r="J114">
-        <v>0.2945374132660446</v>
+        <v>0.31192205724976602</v>
       </c>
       <c r="K114"/>
       <c r="L114"/>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.97253660027199618</v>
+        <v>0.99266390576019081</v>
       </c>
       <c r="B115">
-        <v>0.95280542285342473</v>
+        <v>0.9903259282143192</v>
       </c>
       <c r="C115">
-        <v>0.95105122632264405</v>
+        <v>0.98989907215533568</v>
       </c>
       <c r="D115">
-        <v>0.87865361463723457</v>
+        <v>0.98433434325362279</v>
       </c>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115">
-        <v>0.004138508228870871</v>
+        <v>0.0010826422824678768</v>
       </c>
       <c r="H115">
-        <v>0.0069550374650548738</v>
+        <v>0.0013408586507590138</v>
       </c>
       <c r="I115">
-        <v>-0.0076982451361297319</v>
+        <v>-0.0016406653672285222</v>
       </c>
       <c r="J115">
-        <v>-0.036819112635492687</v>
+        <v>-0.0050034345241549063</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.99586149177112904</v>
+        <v>0.99891735771753198</v>
       </c>
       <c r="B116">
-        <v>0.99304496253494501</v>
+        <v>0.99865914134924105</v>
       </c>
       <c r="C116">
-        <v>1.0076982451361298</v>
+        <v>1.0016406653672285</v>
       </c>
       <c r="D116">
-        <v>1.0368191126354926</v>
+        <v>1.0050034345241547</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116">
-        <v>0.027463399728003754</v>
+        <v>0.0073360942398090177</v>
       </c>
       <c r="H116">
-        <v>0.04719457714657524</v>
+        <v>0.0096740717856808565</v>
       </c>
       <c r="I116">
-        <v>0.04894877367735595</v>
+        <v>0.010100927844664244</v>
       </c>
       <c r="J116">
-        <v>0.12134638536276542</v>
+        <v>0.015665656746377127</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
     </row>
     <row r="117">
       <c r="A117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="G117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="H117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="I117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="J117">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="K117"/>
       <c r="L117"/>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="G118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="H118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="I118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="J118">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="K118">
         <v>1.9599639845400538</v>
@@ -2266,116 +2266,116 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.8909294299722138</v>
+        <v>0.97115621360006466</v>
       </c>
       <c r="B121">
-        <v>0.88702727312882357</v>
+        <v>0.97650302649132836</v>
       </c>
       <c r="C121">
-        <v>0.85142140591966187</v>
+        <v>0.97320288931171495</v>
       </c>
       <c r="D121">
-        <v>0.91304320124320137</v>
+        <v>0.98679538239538223</v>
       </c>
       <c r="E121">
-        <v>0.87501274961597542</v>
+        <v>0.9927803505789603</v>
       </c>
       <c r="F121">
-        <v>0.96915714285714283</v>
+        <v>0.98977567567567559</v>
       </c>
       <c r="G121">
-        <v>0.10907057002778617</v>
+        <v>0.028843786399935466</v>
       </c>
       <c r="H121">
-        <v>0.11297272687117647</v>
+        <v>0.023496973508671623</v>
       </c>
       <c r="I121">
-        <v>0.14857859408033827</v>
+        <v>0.026797110688285004</v>
       </c>
       <c r="J121">
-        <v>0.086956798756798764</v>
+        <v>0.013204617604617604</v>
       </c>
       <c r="K121">
-        <v>0.12498725038402458</v>
+        <v>0.0072196494210396648</v>
       </c>
       <c r="L121">
-        <v>0.030842857142857144</v>
+        <v>0.010224324324324324</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.014465208100527496</v>
+        <v>0.0039988267620670818</v>
       </c>
       <c r="B122">
-        <v>0.020723547261989966</v>
+        <v>0.0045117776165072843</v>
       </c>
       <c r="C122">
-        <v>0.039794410718584597</v>
+        <v>0.0073211942214892736</v>
       </c>
       <c r="D122">
-        <v>0.045611386908593711</v>
+        <v>0.0065945748652738922</v>
       </c>
       <c r="E122">
-        <v>0.042108629146266785</v>
+        <v>0.0034035906168121237</v>
       </c>
       <c r="F122">
-        <v>0.029720920815324469</v>
+        <v>0.010085211388802702</v>
       </c>
       <c r="G122">
-        <v>0.014465208100527496</v>
+        <v>0.0039988267620670818</v>
       </c>
       <c r="H122">
-        <v>0.020723547261989966</v>
+        <v>0.0045117776165072843</v>
       </c>
       <c r="I122">
-        <v>0.039794410718584597</v>
+        <v>0.0073211942214892736</v>
       </c>
       <c r="J122">
-        <v>0.045611386908593711</v>
+        <v>0.0065945748652738922</v>
       </c>
       <c r="K122">
-        <v>0.042108629146266785</v>
+        <v>0.0034035906168121237</v>
       </c>
       <c r="L122">
-        <v>0.029720920815324469</v>
+        <v>0.010085211388802702</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>61.591193419452061</v>
+        <v>242.86028662518316</v>
       </c>
       <c r="B123">
-        <v>42.802868732601681</v>
+        <v>216.43421052460283</v>
       </c>
       <c r="C123">
-        <v>21.395502296558323</v>
+        <v>132.92952759744523</v>
       </c>
       <c r="D123">
-        <v>20.017878497598886</v>
+        <v>149.63745238403592</v>
       </c>
       <c r="E123">
-        <v>20.779891612632827</v>
+        <v>291.68618155047676</v>
       </c>
       <c r="F123">
-        <v>32.608583996409479</v>
+        <v>98.141291988643175</v>
       </c>
       <c r="G123">
-        <v>7.5402005467041118</v>
+        <v>7.2130622595477174</v>
       </c>
       <c r="H123">
-        <v>5.4514184006704811</v>
+        <v>5.2079192517607735</v>
       </c>
       <c r="I123">
-        <v>3.7336548373852363</v>
+        <v>3.6602103260189085</v>
       </c>
       <c r="J123">
-        <v>1.9064712706733129</v>
+        <v>2.0023455452983439</v>
       </c>
       <c r="K123">
-        <v>2.9682099113194607</v>
+        <v>2.1211861924222086</v>
       </c>
       <c r="L123">
-        <v>1.0377490433255416</v>
+        <v>1.0137937550497034</v>
       </c>
     </row>
     <row r="124">
@@ -2383,189 +2383,189 @@
         <v>0</v>
       </c>
       <c r="B124">
-        <v>2.0231886005236767e-222</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>5.7998397634030131e-83</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1.8717386841172823e-74</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>3.9016419880545072e-79</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>2.4876112804931039e-156</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>1.1099528681805179e-13</v>
+        <v>6.2928025434480753e-13</v>
       </c>
       <c r="H124">
-        <v>6.3966426425670652e-08</v>
+        <v>1.9865254609391194e-07</v>
       </c>
       <c r="I124">
-        <v>0.00020013920651714161</v>
+        <v>0.00025461695665634636</v>
       </c>
       <c r="J124">
-        <v>0.056895745850297316</v>
+        <v>0.045301661166096754</v>
       </c>
       <c r="K124">
-        <v>0.0030718604684009734</v>
+        <v>0.033955366715305337</v>
       </c>
       <c r="L124">
-        <v>0.29965548543606307</v>
+        <v>0.3107303877855464</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.86254135621709449</v>
+        <v>0.96331675336094469</v>
       </c>
       <c r="B125">
-        <v>0.84635716426812779</v>
+        <v>0.96765795684042977</v>
       </c>
       <c r="C125">
-        <v>0.77332459191810643</v>
+        <v>0.95885012675978787</v>
       </c>
       <c r="D125">
-        <v>0.82353053010594879</v>
+        <v>0.97386711354897415</v>
       </c>
       <c r="E125">
-        <v>0.79237426549436818</v>
+        <v>0.98610781513335177</v>
       </c>
       <c r="F125">
-        <v>0.91082962442035498</v>
+        <v>0.970004223099728</v>
       </c>
       <c r="G125">
-        <v>0.080682496272666895</v>
+        <v>0.021004326160815448</v>
       </c>
       <c r="H125">
-        <v>0.07230261801048074</v>
+        <v>0.014651903857773051</v>
       </c>
       <c r="I125">
-        <v>0.070481780078782877</v>
+        <v>0.012444348136357879</v>
       </c>
       <c r="J125">
-        <v>-0.002555872380453808</v>
+        <v>0.00027634875820947528</v>
       </c>
       <c r="K125">
-        <v>0.042348766262417306</v>
+        <v>0.00054711397543112487</v>
       </c>
       <c r="L125">
-        <v>-0.027484661293930714</v>
+        <v>-0.0095471282516232207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.91931750372733312</v>
+        <v>0.97899567383918462</v>
       </c>
       <c r="B126">
-        <v>0.92769738198951934</v>
+        <v>0.98534809614222696</v>
       </c>
       <c r="C126">
-        <v>0.9295182199212173</v>
+        <v>0.98755565186364203</v>
       </c>
       <c r="D126">
-        <v>1.002555872380454</v>
+        <v>0.9997236512417903</v>
       </c>
       <c r="E126">
-        <v>0.95765123373758265</v>
+        <v>0.99945288602456883</v>
       </c>
       <c r="F126">
-        <v>1.0274846612939308</v>
+        <v>1.0095471282516231</v>
       </c>
       <c r="G126">
-        <v>0.13745864378290543</v>
+        <v>0.036683246639055485</v>
       </c>
       <c r="H126">
-        <v>0.15364283573187221</v>
+        <v>0.032342043159570191</v>
       </c>
       <c r="I126">
-        <v>0.22667540808189368</v>
+        <v>0.041149873240212131</v>
       </c>
       <c r="J126">
-        <v>0.17646946989405132</v>
+        <v>0.026132886451025732</v>
       </c>
       <c r="K126">
-        <v>0.20762573450563188</v>
+        <v>0.013892184866648205</v>
       </c>
       <c r="L126">
-        <v>0.089170375579644995</v>
+        <v>0.029995776900271869</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="G127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="H127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="I127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="J127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="K127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="L127">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="G128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="H128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="I128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="J128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="K128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="L128">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="129">
@@ -2608,162 +2608,162 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.690655525210084</v>
+        <v>0.93493217822071562</v>
       </c>
       <c r="B131">
-        <v>0.7225809576500033</v>
+        <v>0.93616048958912812</v>
       </c>
       <c r="C131">
-        <v>0.84801790130251331</v>
+        <v>0.97409896404997531</v>
       </c>
       <c r="D131">
-        <v>0.309344474789916</v>
+        <v>0.065067821779284551</v>
       </c>
       <c r="E131">
-        <v>0.2774190423499967</v>
+        <v>0.063839510410871853</v>
       </c>
       <c r="F131">
-        <v>0.15198209869748672</v>
+        <v>0.025901035950024652</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.028775103547966623</v>
+        <v>0.0070414078477939041</v>
       </c>
       <c r="B132">
-        <v>0.020238968554647168</v>
+        <v>0.0052193758039191605</v>
       </c>
       <c r="C132">
-        <v>0.027014029407265116</v>
+        <v>0.0050694322713833503</v>
       </c>
       <c r="D132">
-        <v>0.028775103547966623</v>
+        <v>0.0070414078477939041</v>
       </c>
       <c r="E132">
-        <v>0.020238968554647168</v>
+        <v>0.0052193758039191605</v>
       </c>
       <c r="F132">
-        <v>0.027014029407265116</v>
+        <v>0.0050694322713833503</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>24.001843262137932</v>
+        <v>132.77631383241533</v>
       </c>
       <c r="B133">
-        <v>35.702459623817539</v>
+        <v>179.36253773605983</v>
       </c>
       <c r="C133">
-        <v>31.391759019646603</v>
+        <v>192.15148993087593</v>
       </c>
       <c r="D133">
-        <v>10.750420907235124</v>
+        <v>9.2407403726330823</v>
       </c>
       <c r="E133">
-        <v>13.707172952067124</v>
+        <v>12.231253852795119</v>
       </c>
       <c r="F133">
-        <v>5.6260432831472693</v>
+        <v>5.1092577163392612</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.5236775163748563e-99</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>9.5187092499541459e-177</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>2.9505876752343291e-148</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1.7037791493456669e-25</v>
+        <v>3.5442913358821437e-20</v>
       </c>
       <c r="E134">
-        <v>4.2482129986480135e-39</v>
+        <v>6.4570182830008344e-34</v>
       </c>
       <c r="F134">
-        <v>2.4365677217051883e-08</v>
+        <v>3.3549590745868537e-07</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.63418417988591391</v>
+        <v>0.92112792008834443</v>
       </c>
       <c r="B135">
-        <v>0.68286183794816424</v>
+        <v>0.92592821609431475</v>
       </c>
       <c r="C135">
-        <v>0.79500267650194945</v>
+        <v>0.96416064586539896</v>
       </c>
       <c r="D135">
-        <v>0.25287312946574592</v>
+        <v>0.051263563646913382</v>
       </c>
       <c r="E135">
-        <v>0.23769992264815765</v>
+        <v>0.053607236916058489</v>
       </c>
       <c r="F135">
-        <v>0.098966873896922825</v>
+        <v>0.015962717765448345</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.74712687053425408</v>
+        <v>0.9487364363530868</v>
       </c>
       <c r="B136">
-        <v>0.76230007735184235</v>
+        <v>0.94639276308394149</v>
       </c>
       <c r="C136">
-        <v>0.90103312610307718</v>
+        <v>0.98403728223455167</v>
       </c>
       <c r="D136">
-        <v>0.36581582011408609</v>
+        <v>0.078872079911655721</v>
       </c>
       <c r="E136">
-        <v>0.31713816205183576</v>
+        <v>0.074071783905685223</v>
       </c>
       <c r="F136">
-        <v>0.20499732349805061</v>
+        <v>0.035839354134600959</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B137">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C137">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D137">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E137">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F137">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B138">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C138">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D138">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E138">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F138">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="139">
@@ -2788,162 +2788,162 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.44681778011204487</v>
+        <v>0.88281738780427621</v>
       </c>
       <c r="B141">
-        <v>0.40555878122799277</v>
+        <v>0.86367373067954989</v>
       </c>
       <c r="C141">
-        <v>0.25959901229132265</v>
+        <v>0.86828979875848966</v>
       </c>
       <c r="D141">
-        <v>0.55318221988795513</v>
+        <v>0.1171826121957239</v>
       </c>
       <c r="E141">
-        <v>0.59444121877200717</v>
+        <v>0.13632626932045006</v>
       </c>
       <c r="F141">
-        <v>0.74040098770867724</v>
+        <v>0.13171020124151034</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.030254680055722339</v>
+        <v>0.0087085278647208858</v>
       </c>
       <c r="B142">
-        <v>0.022109209179632584</v>
+        <v>0.0071302658407829487</v>
       </c>
       <c r="C142">
-        <v>0.032281559751854705</v>
+        <v>0.010230597779383108</v>
       </c>
       <c r="D142">
-        <v>0.030254680055722339</v>
+        <v>0.0087085278647208858</v>
       </c>
       <c r="E142">
-        <v>0.022109209179632584</v>
+        <v>0.0071302658407829487</v>
       </c>
       <c r="F142">
-        <v>0.032281559751854705</v>
+        <v>0.010230597779383108</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>14.768550825495648</v>
+        <v>101.37389482103599</v>
       </c>
       <c r="B143">
-        <v>18.343432274438882</v>
+        <v>121.12784431396642</v>
       </c>
       <c r="C143">
-        <v>8.0417121814074566</v>
+        <v>84.871853774594044</v>
       </c>
       <c r="D143">
-        <v>18.284186739675231</v>
+        <v>13.456075931093054</v>
       </c>
       <c r="E143">
-        <v>26.886588929631074</v>
+        <v>19.119381011112562</v>
       </c>
       <c r="F143">
-        <v>22.935725330500432</v>
+        <v>12.874145194813075</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1.6231841884428885e-44</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>2.0071887997784495e-64</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>2.6707886783854415e-15</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>4.4701892490700156e-64</v>
+        <v>1.4380234356388278e-40</v>
       </c>
       <c r="E144">
-        <v>2.17761393488606e-118</v>
+        <v>1.0773489646467402e-78</v>
       </c>
       <c r="F144">
-        <v>1.0714962268729642e-92</v>
+        <v>2.4629066584283951e-37</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.38744275537057143</v>
+        <v>0.86574484078014413</v>
       </c>
       <c r="B145">
-        <v>0.36216930100088962</v>
+        <v>0.84969527177669935</v>
       </c>
       <c r="C145">
-        <v>0.19624622173364498</v>
+        <v>0.84823332487602388</v>
       </c>
       <c r="D145">
-        <v>0.49380719514648169</v>
+        <v>0.10011006517159179</v>
       </c>
       <c r="E145">
-        <v>0.55105173854490408</v>
+        <v>0.12234781041759951</v>
       </c>
       <c r="F145">
-        <v>0.67704819715099951</v>
+        <v>0.11165372735904461</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.50619280485351825</v>
+        <v>0.89988993482840829</v>
       </c>
       <c r="B146">
-        <v>0.44894826145509592</v>
+        <v>0.87765218958240043</v>
       </c>
       <c r="C146">
-        <v>0.32295180284900032</v>
+        <v>0.88834627264095545</v>
       </c>
       <c r="D146">
-        <v>0.61255724462942851</v>
+        <v>0.13425515921985601</v>
       </c>
       <c r="E146">
-        <v>0.63783069899911027</v>
+        <v>0.1503047282233006</v>
       </c>
       <c r="F146">
-        <v>0.80375377826635497</v>
+        <v>0.15176667512397607</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B147">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C147">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D147">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E147">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F147">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B148">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C148">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D148">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E148">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F148">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="149">
@@ -2968,62 +2968,62 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.97907947478991608</v>
+        <v>0.9956647629763854</v>
       </c>
       <c r="B151">
-        <v>0.98404120478875645</v>
+        <v>0.99633355001742152</v>
       </c>
       <c r="C151">
-        <v>0.97911122729774347</v>
+        <v>0.99704417584212757</v>
       </c>
       <c r="D151">
-        <v>0.020920525210084036</v>
+        <v>0.0043352370236146836</v>
       </c>
       <c r="E151">
-        <v>0.015958795211243344</v>
+        <v>0.0036664499825782631</v>
       </c>
       <c r="F151">
-        <v>0.020888772702256468</v>
+        <v>0.002955824157872382</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.0092859161652734789</v>
+        <v>0.0019417945808840958</v>
       </c>
       <c r="B152">
-        <v>0.0056624227156389668</v>
+        <v>0.0013118429677704414</v>
       </c>
       <c r="C152">
-        <v>0.010272143375966476</v>
+        <v>0.0014823741448281589</v>
       </c>
       <c r="D152">
-        <v>0.0092859161652734789</v>
+        <v>0.0019417945808840958</v>
       </c>
       <c r="E152">
-        <v>0.0056624227156389668</v>
+        <v>0.0013118429677704414</v>
       </c>
       <c r="F152">
-        <v>0.010272143375966476</v>
+        <v>0.0014823741448281589</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>105.43703576081998</v>
+        <v>512.75493956887078</v>
       </c>
       <c r="B153">
-        <v>173.7844831101971</v>
+        <v>759.49147458613299</v>
       </c>
       <c r="C153">
-        <v>95.317130170568888</v>
+        <v>672.59954534467943</v>
       </c>
       <c r="D153">
-        <v>2.2529306573238816</v>
+        <v>2.2325930179704474</v>
       </c>
       <c r="E153">
-        <v>2.8183687465026179</v>
+        <v>2.7948848091243899</v>
       </c>
       <c r="F153">
-        <v>2.0335359367285997</v>
+        <v>1.9939798384806757</v>
       </c>
     </row>
     <row r="154">
@@ -3037,93 +3037,93 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.024494879183864209</v>
+        <v>0.025620041148414367</v>
       </c>
       <c r="E154">
-        <v>0.0049287814758303796</v>
+        <v>0.0052116767959521941</v>
       </c>
       <c r="F154">
-        <v>0.042280661610568752</v>
+        <v>0.046208654454818789</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.9608557982861522</v>
+        <v>0.99185799106173744</v>
       </c>
       <c r="B155">
-        <v>0.97292865994549493</v>
+        <v>0.99376176049071308</v>
       </c>
       <c r="C155">
-        <v>0.95895207288022344</v>
+        <v>0.99413807016180233</v>
       </c>
       <c r="D155">
-        <v>0.0026968487063201603</v>
+        <v>0.00052846510896672723</v>
       </c>
       <c r="E155">
-        <v>0.0048462503679818133</v>
+        <v>0.0010946604558698136</v>
       </c>
       <c r="F155">
-        <v>0.0007296182847363851</v>
+        <v>4.9718477547101934e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.99730315129367997</v>
+        <v>0.99947153489103335</v>
       </c>
       <c r="B156">
-        <v>0.99515374963201797</v>
+        <v>0.99890533954412997</v>
       </c>
       <c r="C156">
-        <v>0.9992703817152635</v>
+        <v>0.9999502815224528</v>
       </c>
       <c r="D156">
-        <v>0.039144201713847915</v>
+        <v>0.0081420089382626404</v>
       </c>
       <c r="E156">
-        <v>0.027071340054504872</v>
+        <v>0.0062382395092867131</v>
       </c>
       <c r="F156">
-        <v>0.041047927119776548</v>
+        <v>0.0058619298381976624</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B157">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C157">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D157">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E157">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F157">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B158">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C158">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D158">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E158">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F158">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="159">
@@ -3148,162 +3148,162 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.88344721988795505</v>
+        <v>0.97588987809471861</v>
       </c>
       <c r="B161">
-        <v>0.8878190563332472</v>
+        <v>0.97422012264220859</v>
       </c>
       <c r="C161">
-        <v>0.91327185910842046</v>
+        <v>0.98641488586935266</v>
       </c>
       <c r="D161">
-        <v>0.11655278011204481</v>
+        <v>0.02411012190528148</v>
       </c>
       <c r="E161">
-        <v>0.1121809436667528</v>
+        <v>0.025779877357791352</v>
       </c>
       <c r="F161">
-        <v>0.086728140891579542</v>
+        <v>0.013585114130647283</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.02006099197173291</v>
+        <v>0.0044487958802507978</v>
       </c>
       <c r="B162">
-        <v>0.014000237830260217</v>
+        <v>0.003371308408182032</v>
       </c>
       <c r="C162">
-        <v>0.020596532939797116</v>
+        <v>0.0034903685230488848</v>
       </c>
       <c r="D162">
-        <v>0.02006099197173291</v>
+        <v>0.0044487958802507978</v>
       </c>
       <c r="E162">
-        <v>0.014000237830260217</v>
+        <v>0.003371308408182032</v>
       </c>
       <c r="F162">
-        <v>0.020596532939797116</v>
+        <v>0.0034903685230488848</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>44.038062580992154</v>
+        <v>219.3604526624637</v>
       </c>
       <c r="B163">
-        <v>63.41456960211837</v>
+        <v>288.97389520276903</v>
       </c>
       <c r="C163">
-        <v>44.341048164653706</v>
+        <v>282.61052646890869</v>
       </c>
       <c r="D163">
-        <v>5.8099210784927475</v>
+        <v>5.4194713702895916</v>
       </c>
       <c r="E163">
-        <v>8.0127884273711469</v>
+        <v>7.6468463387166272</v>
       </c>
       <c r="F163">
-        <v>4.210812622934287</v>
+        <v>3.8921718554751634</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>3.8516757519694225e-230</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>5.0505229979399724e-232</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>8.5675242752976505e-09</v>
+        <v>6.2589390449396934e-08</v>
       </c>
       <c r="E164">
-        <v>3.3295417054212854e-15</v>
+        <v>2.4559668925597597e-14</v>
       </c>
       <c r="F164">
-        <v>2.7906340061777498e-05</v>
+        <v>0.00010064812640836366</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.84407738049562431</v>
+        <v>0.96716828036359836</v>
       </c>
       <c r="B165">
-        <v>0.86034349003979416</v>
+        <v>0.96761087453212236</v>
       </c>
       <c r="C165">
-        <v>0.87285101675818966</v>
+        <v>0.97957222753869433</v>
       </c>
       <c r="D165">
-        <v>0.077182940719714058</v>
+        <v>0.015388524174161259</v>
       </c>
       <c r="E165">
-        <v>0.084705377373299695</v>
+        <v>0.019170629247705136</v>
       </c>
       <c r="F165">
-        <v>0.046307298541348699</v>
+        <v>0.0067424557999889506</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.92281705928028579</v>
+        <v>0.98461147582583886</v>
       </c>
       <c r="B166">
-        <v>0.91529462262670025</v>
+        <v>0.98082937075229482</v>
       </c>
       <c r="C166">
-        <v>0.95369270145865126</v>
+        <v>0.993257544200011</v>
       </c>
       <c r="D166">
-        <v>0.15592261950437558</v>
+        <v>0.032831719636401704</v>
       </c>
       <c r="E166">
-        <v>0.1396565099602059</v>
+        <v>0.032389125467877568</v>
       </c>
       <c r="F166">
-        <v>0.1271489832418104</v>
+        <v>0.020427772461305616</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B167">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C167">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D167">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E167">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F167">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B168">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C168">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D168">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E168">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F168">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="169">
@@ -3328,306 +3328,306 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.8565140714285715</v>
+        <v>0.97958810690428744</v>
       </c>
       <c r="B171">
-        <v>0.76165490072604791</v>
+        <v>0.96274763116680762</v>
       </c>
       <c r="C171">
-        <v>0.6928163850616329</v>
+        <v>0.9414036473559525</v>
       </c>
       <c r="D171">
-        <v>0.73894187907059283</v>
+        <v>0.93763564947469169</v>
       </c>
       <c r="E171">
-        <v>0.78188416457520149</v>
+        <v>0.93901759843373644</v>
       </c>
       <c r="F171">
-        <v>0.74300193223169486</v>
+        <v>0.90885288492651983</v>
       </c>
       <c r="G171">
-        <v>0.14348592857142856</v>
+        <v>0.020411893095712515</v>
       </c>
       <c r="H171">
-        <v>0.23834509927395206</v>
+        <v>0.037252368833192502</v>
       </c>
       <c r="I171">
-        <v>0.3071836149383671</v>
+        <v>0.058596352644047479</v>
       </c>
       <c r="J171">
-        <v>0.26105812092940717</v>
+        <v>0.062364350525308254</v>
       </c>
       <c r="K171">
-        <v>0.21811583542479851</v>
+        <v>0.060982401566263514</v>
       </c>
       <c r="L171">
-        <v>0.25699806776830514</v>
+        <v>0.091147115073480098</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.12184038884824504</v>
+        <v>0.018592186329334258</v>
       </c>
       <c r="B172">
-        <v>0.031907744786349009</v>
+        <v>0.0055048324955118575</v>
       </c>
       <c r="C172">
-        <v>0.028245072795309415</v>
+        <v>0.0060394309698187992</v>
       </c>
       <c r="D172">
-        <v>0.030261250449534972</v>
+        <v>0.0080910671954059661</v>
       </c>
       <c r="E172">
-        <v>0.042441051844715881</v>
+        <v>0.012472627423542019</v>
       </c>
       <c r="F172">
-        <v>0.051722930466606393</v>
+        <v>0.019343311608146164</v>
       </c>
       <c r="G172">
-        <v>0.12184038884824502</v>
+        <v>0.018592186329334261</v>
       </c>
       <c r="H172">
-        <v>0.031907744786349015</v>
+        <v>0.0055048324955118515</v>
       </c>
       <c r="I172">
-        <v>0.028245072795309419</v>
+        <v>0.0060394309698187983</v>
       </c>
       <c r="J172">
-        <v>0.030261250449534968</v>
+        <v>0.0080910671954059713</v>
       </c>
       <c r="K172">
-        <v>0.042441051844715874</v>
+        <v>0.012472627423542031</v>
       </c>
       <c r="L172">
-        <v>0.051722930466606393</v>
+        <v>0.019343311608146157</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>7.0298041521796124</v>
+        <v>52.688161013033699</v>
       </c>
       <c r="B173">
-        <v>23.870533810083135</v>
+        <v>174.89135808432772</v>
       </c>
       <c r="C173">
-        <v>24.528751973218036</v>
+        <v>155.87621616349023</v>
       </c>
       <c r="D173">
-        <v>24.418748997265851</v>
+        <v>115.88528766725267</v>
       </c>
       <c r="E173">
-        <v>18.422827205979107</v>
+        <v>75.286270209703019</v>
       </c>
       <c r="F173">
-        <v>14.365039365110903</v>
+        <v>46.98538199342088</v>
       </c>
       <c r="G173">
-        <v>1.1776548805186722</v>
+        <v>1.097874813329897</v>
       </c>
       <c r="H173">
-        <v>7.469819658828488</v>
+        <v>6.7672120566002247</v>
       </c>
       <c r="I173">
-        <v>10.875653150710953</v>
+        <v>9.702296944343674</v>
       </c>
       <c r="J173">
-        <v>8.6268120798497581</v>
+        <v>7.7078028174970692</v>
       </c>
       <c r="K173">
-        <v>5.1392655446628623</v>
+        <v>4.8892987415914861</v>
       </c>
       <c r="L173">
-        <v>4.9687453021291876</v>
+        <v>4.7120739674738426</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>3.3113334134955759e-11</v>
+        <v>0</v>
       </c>
       <c r="B174">
-        <v>7.5747433377645946e-91</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>3.5590315158021399e-84</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>3.5213887704156773e-97</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>1.2092103485908153e-46</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>2.8131714221646354e-41</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>0.24035508581591794</v>
+        <v>0.27240974625267211</v>
       </c>
       <c r="H174">
-        <v>2.6059695754523143e-13</v>
+        <v>1.7096837428779298e-11</v>
       </c>
       <c r="I174">
-        <v>1.5261620930586411e-24</v>
+        <v>6.4515355816874185e-22</v>
       </c>
       <c r="J174">
-        <v>3.7888079787806732e-17</v>
+        <v>2.2678875624961574e-14</v>
       </c>
       <c r="K174">
-        <v>6.0307836023196723e-07</v>
+        <v>1.2638125826648211e-06</v>
       </c>
       <c r="L174">
-        <v>8.4474355564314435e-07</v>
+        <v>2.6234125494785112e-06</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.61623505739101936</v>
+        <v>0.9431229449646833</v>
       </c>
       <c r="B175">
-        <v>0.69899986524786717</v>
+        <v>0.95195195585432713</v>
       </c>
       <c r="C175">
-        <v>0.63730327656950303</v>
+        <v>0.92956150819481931</v>
       </c>
       <c r="D175">
-        <v>0.67953428859362452</v>
+        <v>0.92176509704763987</v>
       </c>
       <c r="E175">
-        <v>0.69824613535555613</v>
+        <v>0.91452811997921479</v>
       </c>
       <c r="F175">
-        <v>0.64145421887925436</v>
+        <v>0.87091740812636131</v>
       </c>
       <c r="G175">
-        <v>-0.096793085466123585</v>
+        <v>-0.016053268843891584</v>
       </c>
       <c r="H175">
-        <v>0.17569006379577132</v>
+        <v>0.026456693520712015</v>
       </c>
       <c r="I175">
-        <v>0.25167050644623717</v>
+        <v>0.046754213482914336</v>
       </c>
       <c r="J175">
-        <v>0.201650530452439</v>
+        <v>0.046493798098256364</v>
       </c>
       <c r="K175">
-        <v>0.13447780620515321</v>
+        <v>0.036492923111741848</v>
       </c>
       <c r="L175">
-        <v>0.15545035441586463</v>
+        <v>0.053211638273321545</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1.0967930854661236</v>
+        <v>1.0160532688438915</v>
       </c>
       <c r="B176">
-        <v>0.82430993620422865</v>
+        <v>0.97354330647928811</v>
       </c>
       <c r="C176">
-        <v>0.74832949355376277</v>
+        <v>0.95324578651708569</v>
       </c>
       <c r="D176">
-        <v>0.79834946954756114</v>
+        <v>0.95350620190174351</v>
       </c>
       <c r="E176">
-        <v>0.86552219379484685</v>
+        <v>0.9635070768882581</v>
       </c>
       <c r="F176">
-        <v>0.84454964558413537</v>
+        <v>0.94678836172667835</v>
       </c>
       <c r="G176">
-        <v>0.3837649426089807</v>
+        <v>0.056877055035316613</v>
       </c>
       <c r="H176">
-        <v>0.30100013475213283</v>
+        <v>0.048048044145672986</v>
       </c>
       <c r="I176">
-        <v>0.36269672343049703</v>
+        <v>0.070438491805180622</v>
       </c>
       <c r="J176">
-        <v>0.32046571140637536</v>
+        <v>0.078234902952360144</v>
       </c>
       <c r="K176">
-        <v>0.30175386464444381</v>
+        <v>0.085471880020785179</v>
       </c>
       <c r="L176">
-        <v>0.35854578112074564</v>
+        <v>0.12908259187363866</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>196.98173200382215</v>
+        <v>1755.150938486483</v>
       </c>
       <c r="B177">
-        <v>648.11811179570361</v>
+        <v>2041.0521370680149</v>
       </c>
       <c r="C177">
-        <v>436.89999432499093</v>
+        <v>2825.9617732025163</v>
       </c>
       <c r="D177">
-        <v>744.10859702712241</v>
+        <v>1555.1085877244846</v>
       </c>
       <c r="E177">
-        <v>222.41994949022731</v>
+        <v>680.16756079427466</v>
       </c>
       <c r="F177">
-        <v>711.95261658809261</v>
+        <v>1972.0765363313633</v>
       </c>
       <c r="G177">
-        <v>196.98173200382234</v>
+        <v>1755.1509384864678</v>
       </c>
       <c r="H177">
-        <v>648.11811179570122</v>
+        <v>2041.0521370681033</v>
       </c>
       <c r="I177">
-        <v>436.89999432499064</v>
+        <v>2825.9617732025335</v>
       </c>
       <c r="J177">
-        <v>744.10859702712287</v>
+        <v>1555.1085877244511</v>
       </c>
       <c r="K177">
-        <v>222.41994949022808</v>
+        <v>680.16756079425443</v>
       </c>
       <c r="L177">
-        <v>711.95261658809341</v>
+        <v>1972.0765363313933</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9720801641303454</v>
+        <v>1.9613165064976961</v>
       </c>
       <c r="B178">
-        <v>1.9636309584933822</v>
+        <v>1.9611269409709227</v>
       </c>
       <c r="C178">
-        <v>1.9654085827439904</v>
+        <v>1.9608037943164769</v>
       </c>
       <c r="D178">
-        <v>1.9631571595509272</v>
+        <v>1.9614906221595874</v>
       </c>
       <c r="E178">
-        <v>1.970687001954186</v>
+        <v>1.9634578684117416</v>
       </c>
       <c r="F178">
-        <v>1.9633016234067058</v>
+        <v>1.9611676412317411</v>
       </c>
       <c r="G178">
-        <v>1.9720801641303454</v>
+        <v>1.9613165064976961</v>
       </c>
       <c r="H178">
-        <v>1.9636309584933822</v>
+        <v>1.9611269409709227</v>
       </c>
       <c r="I178">
-        <v>1.9654085827439904</v>
+        <v>1.9608037943164769</v>
       </c>
       <c r="J178">
-        <v>1.9631571595509236</v>
+        <v>1.9614906221595874</v>
       </c>
       <c r="K178">
-        <v>1.970687001954186</v>
+        <v>1.9634578684117416</v>
       </c>
       <c r="L178">
-        <v>1.9633016234067058</v>
+        <v>1.9611676412317411</v>
       </c>
     </row>
     <row r="179">
@@ -3670,306 +3670,306 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.37864935714285719</v>
+        <v>0.91975909232290287</v>
       </c>
       <c r="B181">
-        <v>0.3471821233898057</v>
+        <v>0.89334776228040746</v>
       </c>
       <c r="C181">
-        <v>0.43004287595034141</v>
+        <v>0.88702497589327556</v>
       </c>
       <c r="D181">
-        <v>0.40393302528735592</v>
+        <v>0.85734215608780029</v>
       </c>
       <c r="E181">
-        <v>0.36427086763466032</v>
+        <v>0.82488936783228461</v>
       </c>
       <c r="F181">
-        <v>0.37073872212993625</v>
+        <v>0.77482279629165496</v>
       </c>
       <c r="G181">
-        <v>0.62135064285714281</v>
+        <v>0.080240907677097045</v>
       </c>
       <c r="H181">
-        <v>0.65281787661019419</v>
+        <v>0.10665223771959245</v>
       </c>
       <c r="I181">
-        <v>0.56995712404965859</v>
+        <v>0.11297502410672429</v>
       </c>
       <c r="J181">
-        <v>0.59606697471264414</v>
+        <v>0.14265784391219966</v>
       </c>
       <c r="K181">
-        <v>0.63572913236533968</v>
+        <v>0.17511063216771539</v>
       </c>
       <c r="L181">
-        <v>0.6292612778700637</v>
+        <v>0.22517720370834512</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.13980852145691564</v>
+        <v>0.028923780101504135</v>
       </c>
       <c r="B182">
-        <v>0.035528715414282055</v>
+        <v>0.0085295280986748753</v>
       </c>
       <c r="C182">
-        <v>0.030017546722354117</v>
+        <v>0.0079078101589729072</v>
       </c>
       <c r="D182">
-        <v>0.03419027702499243</v>
+        <v>0.01140518427452575</v>
       </c>
       <c r="E182">
-        <v>0.047587337504578123</v>
+        <v>0.018527220972471475</v>
       </c>
       <c r="F182">
-        <v>0.057779291811306324</v>
+        <v>0.027160503484435321</v>
       </c>
       <c r="G182">
-        <v>0.13980852145691564</v>
+        <v>0.028923780101504135</v>
       </c>
       <c r="H182">
-        <v>0.035528715414282055</v>
+        <v>0.0085295280986748701</v>
       </c>
       <c r="I182">
-        <v>0.03001754672235411</v>
+        <v>0.007907810158972909</v>
       </c>
       <c r="J182">
-        <v>0.034190277024992437</v>
+        <v>0.01140518427452575</v>
       </c>
       <c r="K182">
-        <v>0.047587337504578123</v>
+        <v>0.018527220972471472</v>
       </c>
       <c r="L182">
-        <v>0.057779291811306331</v>
+        <v>0.027160503484435321</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>2.7083424758164285</v>
+        <v>31.799408275651782</v>
       </c>
       <c r="B183">
-        <v>9.7718738024016272</v>
+        <v>104.73589534445588</v>
       </c>
       <c r="C183">
-        <v>14.326383162754862</v>
+        <v>112.1707474080897</v>
       </c>
       <c r="D183">
-        <v>11.814265938590925</v>
+        <v>75.171267333464485</v>
       </c>
       <c r="E183">
-        <v>7.6547856370324521</v>
+        <v>44.523103009239215</v>
       </c>
       <c r="F183">
-        <v>6.4164635894237394</v>
+        <v>28.527556447386083</v>
       </c>
       <c r="G183">
-        <v>4.4442973602908928</v>
+        <v>2.7742192547275053</v>
       </c>
       <c r="H183">
-        <v>18.374373207644044</v>
+        <v>12.503884914355545</v>
       </c>
       <c r="I183">
-        <v>18.987465208980943</v>
+        <v>14.286511921196379</v>
       </c>
       <c r="J183">
-        <v>17.433815300090451</v>
+        <v>12.508157735849617</v>
       </c>
       <c r="K183">
-        <v>13.359207841879776</v>
+        <v>9.4515325546071995</v>
       </c>
       <c r="L183">
-        <v>10.890775192002769</v>
+        <v>8.290612279606151</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.0081510099188916111</v>
+        <v>4.7741164443948074e-171</v>
       </c>
       <c r="B184">
-        <v>8.0437519422725726e-21</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>6.9499928925579585e-39</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>6.9992402300581472e-29</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>9.8204268713066205e-14</v>
+        <v>7.4666943008367874e-309</v>
       </c>
       <c r="F184">
-        <v>2.7364700511935842e-10</v>
+        <v>5.7628068153742963e-141</v>
       </c>
       <c r="G184">
-        <v>2.6034129223372398e-05</v>
+        <v>0.0056001960352883616</v>
       </c>
       <c r="H184">
-        <v>1.7135857056740551e-58</v>
+        <v>1.3094116782185299e-34</v>
       </c>
       <c r="I184">
-        <v>4.3809787710623369e-60</v>
+        <v>8.7826977870652048e-45</v>
       </c>
       <c r="J184">
-        <v>1.3875628857488781e-54</v>
+        <v>9.590666206624523e-34</v>
       </c>
       <c r="K184">
-        <v>4.2172872068924895e-35</v>
+        <v>8.2694582956022311e-21</v>
       </c>
       <c r="L184">
-        <v>1.9690667886072515e-25</v>
+        <v>2.6528295511677089e-16</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.10073774190769319</v>
+        <v>0.86302496864539446</v>
       </c>
       <c r="B185">
-        <v>0.27738487311113369</v>
+        <v>0.87662017693868388</v>
       </c>
       <c r="C185">
-        <v>0.37105766403702917</v>
+        <v>0.87151941580779213</v>
       </c>
       <c r="D185">
-        <v>0.33677454356009728</v>
+        <v>0.83496479336639051</v>
       </c>
       <c r="E185">
-        <v>0.27077873467149333</v>
+        <v>0.78855660043568687</v>
       </c>
       <c r="F185">
-        <v>0.25727611005487316</v>
+        <v>0.72154224508522646</v>
       </c>
       <c r="G185">
-        <v>0.34343902762197881</v>
+        <v>0.023506783999588728</v>
       </c>
       <c r="H185">
-        <v>0.58302062633152218</v>
+        <v>0.089924652377868827</v>
       </c>
       <c r="I185">
-        <v>0.51097191213634641</v>
+        <v>0.09746946402124082</v>
       </c>
       <c r="J185">
-        <v>0.52890849298538556</v>
+        <v>0.12028048119078992</v>
       </c>
       <c r="K185">
-        <v>0.54223699940217274</v>
+        <v>0.13877786477111761</v>
       </c>
       <c r="L185">
-        <v>0.51579866579500067</v>
+        <v>0.1718966525019166</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.65656097237802125</v>
+        <v>0.97649321600041128</v>
       </c>
       <c r="B186">
-        <v>0.4169793736684777</v>
+        <v>0.91007534762213105</v>
       </c>
       <c r="C186">
-        <v>0.48902808786365365</v>
+        <v>0.90253053597875899</v>
       </c>
       <c r="D186">
-        <v>0.47109150701461455</v>
+        <v>0.87971951880921007</v>
       </c>
       <c r="E186">
-        <v>0.45776300059782732</v>
+        <v>0.86122213522888236</v>
       </c>
       <c r="F186">
-        <v>0.48420133420499933</v>
+        <v>0.82810334749808345</v>
       </c>
       <c r="G186">
-        <v>0.89926225809230687</v>
+        <v>0.13697503135460537</v>
       </c>
       <c r="H186">
-        <v>0.7226151268888662</v>
+        <v>0.12337982306131608</v>
       </c>
       <c r="I186">
-        <v>0.62894233596297078</v>
+        <v>0.12848058419220776</v>
       </c>
       <c r="J186">
-        <v>0.66322545643990272</v>
+        <v>0.1650352066336094</v>
       </c>
       <c r="K186">
-        <v>0.72922126532850662</v>
+        <v>0.21144339956431316</v>
       </c>
       <c r="L186">
-        <v>0.74272388994512673</v>
+        <v>0.27845775491477365</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>86.403760648965431</v>
+        <v>1541.1496954975737</v>
       </c>
       <c r="B187">
-        <v>520.66507148741061</v>
+        <v>2021.0976262997381</v>
       </c>
       <c r="C187">
-        <v>469.9783401245017</v>
+        <v>2870.9365918542458</v>
       </c>
       <c r="D187">
-        <v>553.81256596293338</v>
+        <v>1147.0407359163426</v>
       </c>
       <c r="E187">
-        <v>508.18349534773165</v>
+        <v>2189.8442988141642</v>
       </c>
       <c r="F187">
-        <v>632.0226234928665</v>
+        <v>1373.7619037003699</v>
       </c>
       <c r="G187">
-        <v>86.403760648965388</v>
+        <v>1541.1496954975728</v>
       </c>
       <c r="H187">
-        <v>520.66507148741016</v>
+        <v>2021.0976262997913</v>
       </c>
       <c r="I187">
-        <v>469.97834012450352</v>
+        <v>2870.9365918542153</v>
       </c>
       <c r="J187">
-        <v>553.81256596293133</v>
+        <v>1147.0407359163451</v>
       </c>
       <c r="K187">
-        <v>508.18349534773233</v>
+        <v>2189.844298814171</v>
       </c>
       <c r="L187">
-        <v>632.02262349286559</v>
+        <v>1373.7619037003687</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9878016900479645</v>
+        <v>1.9615044602886484</v>
       </c>
       <c r="B188">
-        <v>1.9645306469654809</v>
+        <v>1.9611384297241945</v>
       </c>
       <c r="C188">
-        <v>1.9650244058547879</v>
+        <v>1.9607906327758096</v>
       </c>
       <c r="D188">
-        <v>1.964256729425359</v>
+        <v>1.9620342979807115</v>
       </c>
       <c r="E188">
-        <v>1.9646430724175861</v>
+        <v>1.9610478792573656</v>
       </c>
       <c r="F188">
-        <v>1.9637245199474835</v>
+        <v>1.9616923241854349</v>
       </c>
       <c r="G188">
-        <v>1.9878016900479645</v>
+        <v>1.9615044602886451</v>
       </c>
       <c r="H188">
-        <v>1.9645306469654809</v>
+        <v>1.9611384297241945</v>
       </c>
       <c r="I188">
-        <v>1.9650244058547879</v>
+        <v>1.9607906327758096</v>
       </c>
       <c r="J188">
-        <v>1.964256729425359</v>
+        <v>1.9620342979807079</v>
       </c>
       <c r="K188">
-        <v>1.9646430724175861</v>
+        <v>1.9610478792573656</v>
       </c>
       <c r="L188">
-        <v>1.9637245199474835</v>
+        <v>1.9616923241854349</v>
       </c>
     </row>
     <row r="189">
@@ -4012,37 +4012,37 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.87477799999999983</v>
+        <v>0.98216865840738199</v>
       </c>
       <c r="B191">
-        <v>0.98978395679328046</v>
+        <v>0.9986958887728774</v>
       </c>
       <c r="C191">
-        <v>0.98942531579860371</v>
+        <v>0.99822098012345428</v>
       </c>
       <c r="D191">
-        <v>0.95938463075433167</v>
+        <v>0.990291743284755</v>
       </c>
       <c r="E191">
-        <v>0.98570747666783054</v>
+        <v>0.99556160193622334</v>
       </c>
       <c r="F191">
         <v>1</v>
       </c>
       <c r="G191">
-        <v>0.125222</v>
+        <v>0.017831341592617907</v>
       </c>
       <c r="H191">
-        <v>0.01021604320671957</v>
+        <v>0.0013041112271226884</v>
       </c>
       <c r="I191">
-        <v>0.010574684201396258</v>
+        <v>0.0017790198765458114</v>
       </c>
       <c r="J191">
-        <v>0.040615369245668435</v>
+        <v>0.0097082567152450543</v>
       </c>
       <c r="K191">
-        <v>0.014292523332169446</v>
+        <v>0.0044383980637767101</v>
       </c>
       <c r="L191">
         <v>0</v>
@@ -4050,77 +4050,77 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.10921005887144146</v>
+        <v>0.017481378858527175</v>
       </c>
       <c r="B192">
-        <v>0.0073134907144842085</v>
+        <v>0.00095382680365213687</v>
       </c>
       <c r="C192">
-        <v>0.0060399705246165676</v>
+        <v>0.0010259247312702118</v>
       </c>
       <c r="D192">
-        <v>0.013376495703394171</v>
+        <v>0.0032374864327423193</v>
       </c>
       <c r="E192">
-        <v>0.0099586101265464501</v>
+        <v>0.0031209992396522062</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0.10921005887144143</v>
+        <v>0.017481378858527175</v>
       </c>
       <c r="H192">
-        <v>0.0073134907144842094</v>
+        <v>0.00095382680365213698</v>
       </c>
       <c r="I192">
-        <v>0.0060399705246165676</v>
+        <v>0.001025924731270212</v>
       </c>
       <c r="J192">
-        <v>0.01337649570339417</v>
+        <v>0.0032374864327423189</v>
       </c>
       <c r="K192">
-        <v>0.0099586101265464484</v>
+        <v>0.0031209992396522058</v>
       </c>
       <c r="L192"/>
     </row>
     <row r="193">
       <c r="A193">
-        <v>8.0100497064080898</v>
+        <v>56.183706465940112</v>
       </c>
       <c r="B193">
-        <v>135.33673527923335</v>
+        <v>1047.041124184118</v>
       </c>
       <c r="C193">
-        <v>163.81293778936362</v>
+        <v>972.99631220269237</v>
       </c>
       <c r="D193">
-        <v>71.721671507052179</v>
+        <v>305.88290139826978</v>
       </c>
       <c r="E193">
-        <v>98.98042639908671</v>
+        <v>318.98809499459071</v>
       </c>
       <c r="F193"/>
       <c r="G193">
-        <v>1.1466159920983772</v>
+        <v>1.0200191722245082</v>
       </c>
       <c r="H193">
-        <v>1.3968764856003602</v>
+        <v>1.367241119802187</v>
       </c>
       <c r="I193">
-        <v>1.7507840739119445</v>
+        <v>1.7340647148092254</v>
       </c>
       <c r="J193">
-        <v>3.0363235742947712</v>
+        <v>2.9987018994305585</v>
       </c>
       <c r="K193">
-        <v>1.435192577131841</v>
+        <v>1.4221080246951008</v>
       </c>
       <c r="L193"/>
     </row>
     <row r="194">
       <c r="A194">
-        <v>5.214135885060444e-15</v>
+        <v>0</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -4136,159 +4136,159 @@
       </c>
       <c r="F194"/>
       <c r="G194">
-        <v>0.25195687411008383</v>
+        <v>0.30776982870770075</v>
       </c>
       <c r="H194">
-        <v>0.16278273267578999</v>
+        <v>0.17161140054558127</v>
       </c>
       <c r="I194">
-        <v>0.080311597953737504</v>
+        <v>0.082968440368491797</v>
       </c>
       <c r="J194">
-        <v>0.0024615058029618187</v>
+        <v>0.0027247428431131423</v>
       </c>
       <c r="K194">
-        <v>0.15156835712437233</v>
+        <v>0.15505750756480285</v>
       </c>
       <c r="L194"/>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.66033602787938528</v>
+        <v>0.94789730269275396</v>
       </c>
       <c r="B195">
-        <v>0.97543116696666121</v>
+        <v>0.99682596846200433</v>
       </c>
       <c r="C195">
-        <v>0.97757182121904174</v>
+        <v>0.99620971612603482</v>
       </c>
       <c r="D195">
-        <v>0.93313305084261111</v>
+        <v>0.98394484205667621</v>
       </c>
       <c r="E195">
-        <v>0.96616353066308991</v>
+        <v>0.98944306905002977</v>
       </c>
       <c r="F195"/>
       <c r="G195">
-        <v>-0.089219972120614555</v>
+        <v>-0.016440014122010078</v>
       </c>
       <c r="H195">
-        <v>-0.0041367466198996977</v>
+        <v>-0.00056580908375042241</v>
       </c>
       <c r="I195">
-        <v>-0.0012788103781656724</v>
+        <v>-0.00023224412087369251</v>
       </c>
       <c r="J195">
-        <v>0.014363789333947861</v>
+        <v>0.0033613554871662829</v>
       </c>
       <c r="K195">
-        <v>-0.0052514226725712196</v>
+        <v>-0.0016801348224168887</v>
       </c>
       <c r="L195"/>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.0892199721206144</v>
+        <v>1.01644001412201</v>
       </c>
       <c r="B196">
-        <v>1.0041367466198998</v>
+        <v>1.0005658090837506</v>
       </c>
       <c r="C196">
-        <v>1.0012788103781656</v>
+        <v>1.0002322441208737</v>
       </c>
       <c r="D196">
-        <v>0.98563621066605223</v>
+        <v>0.99663864451283379</v>
       </c>
       <c r="E196">
-        <v>1.0052514226725713</v>
+        <v>1.0016801348224169</v>
       </c>
       <c r="F196"/>
       <c r="G196">
-        <v>0.33966397212061455</v>
+        <v>0.052102697307245892</v>
       </c>
       <c r="H196">
-        <v>0.024568833033338837</v>
+        <v>0.0031740315379957993</v>
       </c>
       <c r="I196">
-        <v>0.022428178780958187</v>
+        <v>0.0037902838739653152</v>
       </c>
       <c r="J196">
-        <v>0.066866949157389013</v>
+        <v>0.016055157943323826</v>
       </c>
       <c r="K196">
-        <v>0.033836469336910112</v>
+        <v>0.01055693094997031</v>
       </c>
       <c r="L196"/>
     </row>
     <row r="197">
       <c r="A197">
-        <v>658.42535703614931</v>
+        <v>4890.0009245466135</v>
       </c>
       <c r="B197">
-        <v>933.39013765019592</v>
+        <v>4983.7822025611013</v>
       </c>
       <c r="C197">
-        <v>933.43124615133729</v>
+        <v>4983.5947340327739</v>
       </c>
       <c r="D197">
-        <v>930.94590765169812</v>
+        <v>4974.0588707202951</v>
       </c>
       <c r="E197">
-        <v>930.23464511948032</v>
+        <v>4980.9804271356033</v>
       </c>
       <c r="F197">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="G197">
-        <v>658.42535703615079</v>
+        <v>4890.0009245466135</v>
       </c>
       <c r="H197">
-        <v>933.3901376501957</v>
+        <v>4983.7822025611003</v>
       </c>
       <c r="I197">
-        <v>933.43124615133718</v>
+        <v>4983.5947340327712</v>
       </c>
       <c r="J197">
-        <v>930.94590765169892</v>
+        <v>4974.0588707202987</v>
       </c>
       <c r="K197">
-        <v>930.23464511948055</v>
+        <v>4980.9804271356052</v>
       </c>
       <c r="L197"/>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9635734504369122</v>
+        <v>1.9604492295475244</v>
       </c>
       <c r="B198">
-        <v>1.9625087918952135</v>
+        <v>1.960440096371076</v>
       </c>
       <c r="C198">
-        <v>1.9625086796784359</v>
+        <v>1.9604401142853134</v>
       </c>
       <c r="D198">
-        <v>1.9625154819179933</v>
+        <v>1.9604410273011141</v>
       </c>
       <c r="E198">
-        <v>1.9625174353038282</v>
+        <v>1.960440364245468</v>
       </c>
       <c r="F198">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="G198">
-        <v>1.9635734504369122</v>
+        <v>1.9604492295475244</v>
       </c>
       <c r="H198">
-        <v>1.9625087918952135</v>
+        <v>1.960440096371076</v>
       </c>
       <c r="I198">
-        <v>1.9625086796784359</v>
+        <v>1.9604401142853134</v>
       </c>
       <c r="J198">
-        <v>1.9625154819179933</v>
+        <v>1.9604410273011141</v>
       </c>
       <c r="K198">
-        <v>1.9625174353038282</v>
+        <v>1.960440364245468</v>
       </c>
       <c r="L198">
         <v>1.9599639845400538</v>
@@ -4334,306 +4334,306 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.89005857142857148</v>
+        <v>0.99336867532361006</v>
       </c>
       <c r="B201">
-        <v>0.90137901909086582</v>
+        <v>0.98588026168494114</v>
       </c>
       <c r="C201">
-        <v>0.88771542318942187</v>
+        <v>0.97831581032645887</v>
       </c>
       <c r="D201">
-        <v>0.89774046488771975</v>
+        <v>0.97561671509307391</v>
       </c>
       <c r="E201">
-        <v>0.86813749112230754</v>
+        <v>0.96164696803543581</v>
       </c>
       <c r="F201">
-        <v>0.88625934563836883</v>
+        <v>0.96197325603349171</v>
       </c>
       <c r="G201">
-        <v>0.10994142857142856</v>
+        <v>0.0066313246763899814</v>
       </c>
       <c r="H201">
-        <v>0.098620980909134126</v>
+        <v>0.0141197383150588</v>
       </c>
       <c r="I201">
-        <v>0.11228457681057806</v>
+        <v>0.021684189673541115</v>
       </c>
       <c r="J201">
-        <v>0.10225953511228032</v>
+        <v>0.024383284906926119</v>
       </c>
       <c r="K201">
-        <v>0.13186250887769241</v>
+        <v>0.038353031964564202</v>
       </c>
       <c r="L201">
-        <v>0.11374065436163114</v>
+        <v>0.038026743966508354</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.029381419214253957</v>
+        <v>0.0065765795721224318</v>
       </c>
       <c r="B202">
-        <v>0.021890276197195878</v>
+        <v>0.0033319944334353597</v>
       </c>
       <c r="C202">
-        <v>0.018750786697386106</v>
+        <v>0.00375916663894147</v>
       </c>
       <c r="D202">
-        <v>0.020507098229580439</v>
+        <v>0.005154159822081312</v>
       </c>
       <c r="E202">
-        <v>0.032349147326718355</v>
+        <v>0.0095916510111289221</v>
       </c>
       <c r="F202">
-        <v>0.040286064893436203</v>
+        <v>0.012947948784815548</v>
       </c>
       <c r="G202">
-        <v>0.029381419214253957</v>
+        <v>0.006576579572122431</v>
       </c>
       <c r="H202">
-        <v>0.021890276197195881</v>
+        <v>0.0033319944334353566</v>
       </c>
       <c r="I202">
-        <v>0.018750786697386106</v>
+        <v>0.0037591666389414666</v>
       </c>
       <c r="J202">
-        <v>0.020507098229580439</v>
+        <v>0.0051541598220813042</v>
       </c>
       <c r="K202">
-        <v>0.032349147326718349</v>
+        <v>0.0095916510111289273</v>
       </c>
       <c r="L202">
-        <v>0.040286064893436196</v>
+        <v>0.012947948784815548</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>30.29324638602797</v>
+        <v>151.04640100979185</v>
       </c>
       <c r="B203">
-        <v>41.177142351741161</v>
+        <v>295.88292579122856</v>
       </c>
       <c r="C203">
-        <v>47.342836197543171</v>
+        <v>260.24805609626799</v>
       </c>
       <c r="D203">
-        <v>43.777059769127895</v>
+        <v>189.28724540387032</v>
       </c>
       <c r="E203">
-        <v>26.836487600564382</v>
+        <v>100.25875283824067</v>
       </c>
       <c r="F203">
-        <v>21.999153999842928</v>
+        <v>74.295417136776663</v>
       </c>
       <c r="G203">
-        <v>3.7418692327187557</v>
+        <v>1.0083242517888189</v>
       </c>
       <c r="H203">
-        <v>4.5052415063528235</v>
+        <v>4.2376236206676525</v>
       </c>
       <c r="I203">
-        <v>5.9882595126651799</v>
+        <v>5.768350210632617</v>
       </c>
       <c r="J203">
-        <v>4.9865433893897375</v>
+        <v>4.730797210141592</v>
       </c>
       <c r="K203">
-        <v>4.076228271054994</v>
+        <v>3.9985850110751779</v>
       </c>
       <c r="L203">
-        <v>2.8233250048743996</v>
+        <v>2.9368932947204325</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>3.5725827699926052e-22</v>
+        <v>0</v>
       </c>
       <c r="B204">
-        <v>9.5442872444539675e-203</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>2.584057537830696e-235</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>4.4174361849592519e-199</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>6.4045131018477375e-115</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>3.0686213907096745e-57</v>
+        <v>0</v>
       </c>
       <c r="G204">
-        <v>0.00088686716221044826</v>
+        <v>0.3133478071466822</v>
       </c>
       <c r="H204">
-        <v>7.5803169601828793e-06</v>
+        <v>2.3344136461025153e-05</v>
       </c>
       <c r="I204">
-        <v>3.1883819570609278e-09</v>
+        <v>8.6348785559594271e-09</v>
       </c>
       <c r="J204">
-        <v>7.8303532377714773e-07</v>
+        <v>2.4866184019594226e-06</v>
       </c>
       <c r="K204">
-        <v>5.0138844402632025e-05</v>
+        <v>6.488393513971082e-05</v>
       </c>
       <c r="L204">
-        <v>0.0051935111256000231</v>
+        <v>0.0033411596588831818</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.82973425043966353</v>
+        <v>0.98047568302302457</v>
       </c>
       <c r="B205">
-        <v>0.85841220100748727</v>
+        <v>0.97934675539178384</v>
       </c>
       <c r="C205">
-        <v>0.85090946440943505</v>
+        <v>0.97094566223629497</v>
       </c>
       <c r="D205">
-        <v>0.85747487018050117</v>
+        <v>0.96550510983662008</v>
       </c>
       <c r="E205">
-        <v>0.80464240173643575</v>
+        <v>0.94284193077315048</v>
       </c>
       <c r="F205">
-        <v>0.80685870687822792</v>
+        <v>0.9365851974068935</v>
       </c>
       <c r="G205">
-        <v>0.04961710758252063</v>
+        <v>-0.0062616676241954768</v>
       </c>
       <c r="H205">
-        <v>0.055654162825755478</v>
+        <v>0.007586232021901505</v>
       </c>
       <c r="I205">
-        <v>0.075478618030591221</v>
+        <v>0.014314041583377232</v>
       </c>
       <c r="J205">
-        <v>0.061993940405061759</v>
+        <v>0.014271679650472321</v>
       </c>
       <c r="K205">
-        <v>0.068367419491820666</v>
+        <v>0.01954799470227887</v>
       </c>
       <c r="L205">
-        <v>0.034340015601490234</v>
+        <v>0.012638685339910166</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.95038289241747942</v>
+        <v>1.0062616676241956</v>
       </c>
       <c r="B206">
-        <v>0.94434583717424436</v>
+        <v>0.99241376797809844</v>
       </c>
       <c r="C206">
-        <v>0.9245213819694087</v>
+        <v>0.98568595841662277</v>
       </c>
       <c r="D206">
-        <v>0.93800605959493832</v>
+        <v>0.98572832034952773</v>
       </c>
       <c r="E206">
-        <v>0.93163258050817932</v>
+        <v>0.98045200529772114</v>
       </c>
       <c r="F206">
-        <v>0.96565998439850975</v>
+        <v>0.98736131466008992</v>
       </c>
       <c r="G206">
-        <v>0.17026574956033649</v>
+        <v>0.019524316976975438</v>
       </c>
       <c r="H206">
-        <v>0.14158779899251278</v>
+        <v>0.020653244608216097</v>
       </c>
       <c r="I206">
-        <v>0.1490905355905649</v>
+        <v>0.029054337763704998</v>
       </c>
       <c r="J206">
-        <v>0.14252512981949889</v>
+        <v>0.034494890163379921</v>
       </c>
       <c r="K206">
-        <v>0.19535759826356414</v>
+        <v>0.057158069226849531</v>
       </c>
       <c r="L206">
-        <v>0.19314129312177203</v>
+        <v>0.063414802593106542</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>26.635476011216337</v>
+        <v>4980.5851135323719</v>
       </c>
       <c r="B207">
-        <v>829.8747488400071</v>
+        <v>2710.7658796754959</v>
       </c>
       <c r="C207">
-        <v>808.59903825779509</v>
+        <v>3850.2526338078342</v>
       </c>
       <c r="D207">
-        <v>672.93597679268623</v>
+        <v>1269.8685647582811</v>
       </c>
       <c r="E207">
-        <v>836.00441004490881</v>
+        <v>3960.6596771496834</v>
       </c>
       <c r="F207">
-        <v>217.70144560586581</v>
+        <v>2913.9513138515963</v>
       </c>
       <c r="G207">
-        <v>26.635476011216337</v>
+        <v>4980.5851135323728</v>
       </c>
       <c r="H207">
-        <v>829.87474884000551</v>
+        <v>2710.7658796756155</v>
       </c>
       <c r="I207">
-        <v>808.59903825779486</v>
+        <v>3850.2526338079633</v>
       </c>
       <c r="J207">
-        <v>672.93597679268726</v>
+        <v>1269.8685647583559</v>
       </c>
       <c r="K207">
-        <v>836.00441004491051</v>
+        <v>3960.6596771495974</v>
       </c>
       <c r="L207">
-        <v>217.70144560586655</v>
+        <v>2913.9513138516058</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>2.0531452394798713</v>
+        <v>1.9604404020651967</v>
       </c>
       <c r="B208">
-        <v>1.9628266768457936</v>
+        <v>1.9608394982884505</v>
       </c>
       <c r="C208">
-        <v>1.9629021104014615</v>
+        <v>1.9605803088950646</v>
       </c>
       <c r="D208">
-        <v>1.963495481244514</v>
+        <v>1.9618338595427227</v>
       </c>
       <c r="E208">
-        <v>1.9628056574285286</v>
+        <v>1.9605631231230543</v>
       </c>
       <c r="F208">
-        <v>1.970920688584743</v>
+        <v>1.9607784251024789</v>
       </c>
       <c r="G208">
-        <v>2.0531452394798713</v>
+        <v>1.9604404020651967</v>
       </c>
       <c r="H208">
-        <v>1.9628266768457974</v>
+        <v>1.9608394982884505</v>
       </c>
       <c r="I208">
-        <v>1.9629021104014615</v>
+        <v>1.9605803088950646</v>
       </c>
       <c r="J208">
-        <v>1.963495481244514</v>
+        <v>1.9618338595427227</v>
       </c>
       <c r="K208">
-        <v>1.9628056574285286</v>
+        <v>1.9605631231230543</v>
       </c>
       <c r="L208">
-        <v>1.970920688584743</v>
+        <v>1.9607784251024789</v>
       </c>
     </row>
     <row r="209">
@@ -4676,114 +4676,114 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.74099834101819284</v>
+        <v>0.96118178422362566</v>
       </c>
       <c r="B211">
-        <v>0.73683740226569772</v>
+        <v>0.93320241753175992</v>
       </c>
       <c r="C211">
-        <v>0.25900165898180705</v>
+        <v>0.03881821577637444</v>
       </c>
       <c r="D211">
-        <v>0.26316259773430228</v>
+        <v>0.066797582468240135</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.027326516379831054</v>
+        <v>0.0046312834176809349</v>
       </c>
       <c r="B212">
-        <v>0.017236246957630815</v>
+        <v>0.0048492460226677017</v>
       </c>
       <c r="C212">
-        <v>0.027326516379831058</v>
+        <v>0.0046312834176809375</v>
       </c>
       <c r="D212">
-        <v>0.017236246957630819</v>
+        <v>0.0048492460226677017</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>27.116458267805523</v>
+        <v>207.54112792020123</v>
       </c>
       <c r="B213">
-        <v>42.749294790040459</v>
+        <v>192.44278660425235</v>
       </c>
       <c r="C213">
-        <v>9.4780342792969012</v>
+        <v>8.3817404972836282</v>
       </c>
       <c r="D213">
-        <v>15.267975585473677</v>
+        <v>13.774838842161483</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>3.3328023194711182e-111</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>1.9821226639729468e-218</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>3.9363017496062694e-20</v>
+        <v>7.2790295184342943e-17</v>
       </c>
       <c r="D214">
-        <v>6.016991425031166e-47</v>
+        <v>2.3365974333324643e-42</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.68734645435649355</v>
+        <v>0.95210171157362089</v>
       </c>
       <c r="B215">
-        <v>0.70300923617365751</v>
+        <v>0.92369564541213267</v>
       </c>
       <c r="C215">
-        <v>0.20534977232010776</v>
+        <v>0.029738143126369666</v>
       </c>
       <c r="D215">
-        <v>0.22933443164226203</v>
+        <v>0.057290810348612928</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.79465022767989213</v>
+        <v>0.97026185687363042</v>
       </c>
       <c r="B216">
-        <v>0.77066556835773792</v>
+        <v>0.94270918965138717</v>
       </c>
       <c r="C216">
-        <v>0.31265354564350634</v>
+        <v>0.047898288426379214</v>
       </c>
       <c r="D216">
-        <v>0.29699076382634254</v>
+        <v>0.076304354587867343</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>699.00191744967844</v>
+        <v>3758.6628400994441</v>
       </c>
       <c r="B217">
-        <v>895.07935786924736</v>
+        <v>4745.8495631319875</v>
       </c>
       <c r="C217">
-        <v>699.00191744967799</v>
+        <v>3758.6628400993536</v>
       </c>
       <c r="D217">
-        <v>895.07935786924611</v>
+        <v>4745.8495631319984</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9633635665795386</v>
+        <v>1.960595332028183</v>
       </c>
       <c r="B218">
-        <v>1.9626178584696983</v>
+        <v>1.960463972169693</v>
       </c>
       <c r="C218">
-        <v>1.9633635665795386</v>
+        <v>1.960595332028183</v>
       </c>
       <c r="D218">
-        <v>1.9626178584696983</v>
+        <v>1.960463972169693</v>
       </c>
     </row>
     <row r="219">
@@ -4802,114 +4802,114 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.38383670794179514</v>
+        <v>0.90503679721199626</v>
       </c>
       <c r="B221">
-        <v>0.38893335723803762</v>
+        <v>0.84542258447769691</v>
       </c>
       <c r="C221">
-        <v>0.61616329205820486</v>
+        <v>0.094963202788003659</v>
       </c>
       <c r="D221">
-        <v>0.61106664276196243</v>
+        <v>0.15457741552230303</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.030121466437237541</v>
+        <v>0.0068522795196382475</v>
       </c>
       <c r="B222">
-        <v>0.019062728277096739</v>
+        <v>0.0068326410492329853</v>
       </c>
       <c r="C222">
-        <v>0.030121466437237541</v>
+        <v>0.0068522795196382441</v>
       </c>
       <c r="D222">
-        <v>0.019062728277096739</v>
+        <v>0.0068326410492329888</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>12.742962190820782</v>
+        <v>132.07820764144424</v>
       </c>
       <c r="B223">
-        <v>20.402817035656362</v>
+        <v>123.73291358143304</v>
       </c>
       <c r="C223">
-        <v>20.455952678866772</v>
+        <v>13.858629455474563</v>
       </c>
       <c r="D223">
-        <v>32.055571158517722</v>
+        <v>22.623377169748352</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>2.3970639851656636e-33</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>6.4592988530027228e-76</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>4.0557573329968541e-72</v>
+        <v>2.8084203828897312e-42</v>
       </c>
       <c r="D224">
-        <v>1.7910274491715501e-149</v>
+        <v>1.4617999233962942e-106</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.3246891561055813</v>
+        <v>0.89160070835816296</v>
       </c>
       <c r="B225">
-        <v>0.35151903160795245</v>
+        <v>0.83202668346912501</v>
       </c>
       <c r="C225">
-        <v>0.55701574022199096</v>
+        <v>0.081527113934170364</v>
       </c>
       <c r="D225">
-        <v>0.57365231713187714</v>
+        <v>0.14118151451373109</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.44298425977800898</v>
+        <v>0.91847288606582955</v>
       </c>
       <c r="B226">
-        <v>0.4263476828681228</v>
+        <v>0.85881848548626882</v>
       </c>
       <c r="C226">
-        <v>0.67531084389441876</v>
+        <v>0.10839929164183695</v>
       </c>
       <c r="D226">
-        <v>0.64848096839204772</v>
+        <v>0.16797331653087497</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>647.48720096164993</v>
+        <v>2771.4803564681119</v>
       </c>
       <c r="B227">
-        <v>869.76080725983411</v>
+        <v>3887.6209981786815</v>
       </c>
       <c r="C227">
-        <v>647.48720096165107</v>
+        <v>2771.4803564681602</v>
       </c>
       <c r="D227">
-        <v>869.76080725983434</v>
+        <v>3887.6209981786069</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9636345381608957</v>
+        <v>1.960820310281596</v>
       </c>
       <c r="B228">
-        <v>1.9626952179262456</v>
+        <v>1.9605743828845978</v>
       </c>
       <c r="C228">
-        <v>1.9636345381608957</v>
+        <v>1.960820310281596</v>
       </c>
       <c r="D228">
-        <v>1.9626952179262491</v>
+        <v>1.9605743828845978</v>
       </c>
     </row>
     <row r="229">
@@ -4928,44 +4928,44 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.98184559386599157</v>
+        <v>0.9978618951530297</v>
       </c>
       <c r="B231">
-        <v>0.98260735805034327</v>
+        <v>0.99548051987141228</v>
       </c>
       <c r="C231">
-        <v>0.018154406134008337</v>
+        <v>0.0021381048469703325</v>
       </c>
       <c r="D231">
-        <v>0.017392641949656597</v>
+        <v>0.0045194801285877665</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.008121833300732316</v>
+        <v>0.0009836884858605234</v>
       </c>
       <c r="B232">
-        <v>0.0050955946419893794</v>
+        <v>0.0013040458703380141</v>
       </c>
       <c r="C232">
-        <v>0.0081218333007323142</v>
+        <v>0.00098368848586052318</v>
       </c>
       <c r="D232">
-        <v>0.0050955946419893794</v>
+        <v>0.0013040458703380143</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>120.88965108129739</v>
+        <v>1014.4084326453283</v>
       </c>
       <c r="B233">
-        <v>192.83467918608258</v>
+        <v>763.37845356113098</v>
       </c>
       <c r="C233">
-        <v>2.2352596343452928</v>
+        <v>2.1735588834303927</v>
       </c>
       <c r="D233">
-        <v>3.4132703190978919</v>
+        <v>3.4657370813315773</v>
       </c>
     </row>
     <row r="234">
@@ -4976,66 +4976,66 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.025693308790151831</v>
+        <v>0.029785207060119393</v>
       </c>
       <c r="D234">
-        <v>0.00067150368947819475</v>
+        <v>0.00053324061523649113</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.96590141620331171</v>
+        <v>0.99593343279331104</v>
       </c>
       <c r="B235">
-        <v>0.97260627172495318</v>
+        <v>0.99292401602469493</v>
       </c>
       <c r="C235">
-        <v>0.0022102284713284744</v>
+        <v>0.00020964248725162762</v>
       </c>
       <c r="D235">
-        <v>0.0073915556242665423</v>
+        <v>0.0019629762818704007</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.99778977152867143</v>
+        <v>0.99979035751274836</v>
       </c>
       <c r="B236">
-        <v>0.99260844437573337</v>
+        <v>0.99803702371812963</v>
       </c>
       <c r="C236">
-        <v>0.034098583796688203</v>
+        <v>0.0040665672066890375</v>
       </c>
       <c r="D236">
-        <v>0.027393728275046651</v>
+        <v>0.0070759839753051328</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>751.55982068850403</v>
+        <v>4983.6790179586378</v>
       </c>
       <c r="B237">
-        <v>870.56732281600193</v>
+        <v>4983.5013410687088</v>
       </c>
       <c r="C237">
-        <v>751.55982068850528</v>
+        <v>4983.6790179586405</v>
       </c>
       <c r="D237">
-        <v>870.56732281600182</v>
+        <v>4983.501341068707</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.963125451151803</v>
+        <v>1.9604401062310908</v>
       </c>
       <c r="B238">
-        <v>1.9626926841820984</v>
+        <v>1.9604401232103201</v>
       </c>
       <c r="C238">
-        <v>1.963125451151803</v>
+        <v>1.9604401062310908</v>
       </c>
       <c r="D238">
-        <v>1.9626926841820984</v>
+        <v>1.9604401232103201</v>
       </c>
     </row>
     <row r="239">
@@ -5054,114 +5054,114 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.89331935717402033</v>
+        <v>0.98475720856180105</v>
       </c>
       <c r="B241">
-        <v>0.89162188244592122</v>
+        <v>0.9724938196083851</v>
       </c>
       <c r="C241">
-        <v>0.1066806428259798</v>
+        <v>0.015242791438199047</v>
       </c>
       <c r="D241">
-        <v>0.1083781175540787</v>
+        <v>0.027506180391614798</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.018858005254641354</v>
+        <v>0.0029365455481466986</v>
       </c>
       <c r="B242">
-        <v>0.01206235206439839</v>
+        <v>0.0032226435577388866</v>
       </c>
       <c r="C242">
-        <v>0.018858005254641354</v>
+        <v>0.002936545548146696</v>
       </c>
       <c r="D242">
-        <v>0.012062352064398393</v>
+        <v>0.0032226435577388805</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>47.370829794108552</v>
+        <v>335.34545690370686</v>
       </c>
       <c r="B243">
-        <v>73.917746529510779</v>
+        <v>301.76896767656149</v>
       </c>
       <c r="C243">
-        <v>5.6570481016131566</v>
+        <v>5.1907219514504153</v>
       </c>
       <c r="D243">
-        <v>8.9848245993377098</v>
+        <v>8.5352847433471961</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>8.0532277107704233e-238</v>
+        <v>0</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>2.121954503306654e-08</v>
+        <v>2.384501642099597e-07</v>
       </c>
       <c r="D244">
-        <v>1.489238149735049e-18</v>
+        <v>2.0864947852549554e-17</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.8563041753333116</v>
+        <v>0.97899699337483315</v>
       </c>
       <c r="B245">
-        <v>0.86794832522444443</v>
+        <v>0.96617527567068207</v>
       </c>
       <c r="C245">
-        <v>0.06966546098527103</v>
+        <v>0.0094825762512311638</v>
       </c>
       <c r="D245">
-        <v>0.08470456033260193</v>
+        <v>0.021187636453911821</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.93033453901472907</v>
+        <v>0.99051742374876894</v>
       </c>
       <c r="B246">
-        <v>0.91529543966739801</v>
+        <v>0.97881236354608814</v>
       </c>
       <c r="C246">
-        <v>0.14369582466668857</v>
+        <v>0.02100300662516693</v>
       </c>
       <c r="D246">
-        <v>0.13205167477555546</v>
+        <v>0.033824724329317775</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>827.02854403933156</v>
+        <v>1486.0077838324969</v>
       </c>
       <c r="B247">
-        <v>901.55833616702796</v>
+        <v>3356.2697971352363</v>
       </c>
       <c r="C247">
-        <v>827.02854403933156</v>
+        <v>1486.007783832549</v>
       </c>
       <c r="D247">
-        <v>901.55833616702705</v>
+        <v>3356.2697971355028</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9628365429370402</v>
+        <v>1.9615616691534903</v>
       </c>
       <c r="B248">
-        <v>1.9625987614263418</v>
+        <v>1.9606710529712716</v>
       </c>
       <c r="C248">
-        <v>1.9628365429370402</v>
+        <v>1.9615616691534903</v>
       </c>
       <c r="D248">
-        <v>1.9625987614263418</v>
+        <v>1.9606710529712716</v>
       </c>
     </row>
     <row r="249">
@@ -5180,114 +5180,114 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.75585723221010581</v>
+        <v>0.95853949656102377</v>
       </c>
       <c r="B251">
-        <v>0.73487567375077134</v>
+        <v>0.94198124760378588</v>
       </c>
       <c r="C251">
-        <v>0.24414276778989424</v>
+        <v>0.041460503438976129</v>
       </c>
       <c r="D251">
-        <v>0.2651243262492286</v>
+        <v>0.058018752396214256</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.058847717012289157</v>
+        <v>0.011777969858918973</v>
       </c>
       <c r="B252">
-        <v>0.015469317874781565</v>
+        <v>0.0037979238519252534</v>
       </c>
       <c r="C252">
-        <v>0.058847717012289157</v>
+        <v>0.011777969858918973</v>
       </c>
       <c r="D252">
-        <v>0.015469317874781565</v>
+        <v>0.0037979238519252534</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>12.844291513505278</v>
+        <v>81.384101678198903</v>
       </c>
       <c r="B253">
-        <v>47.505370288419918</v>
+        <v>248.02531180983902</v>
       </c>
       <c r="C253">
-        <v>4.1487211430633746</v>
+        <v>3.5201740143340401</v>
       </c>
       <c r="D253">
-        <v>17.138721202532164</v>
+        <v>15.276439091005798</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>6.8605460597744444e-35</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>2.1103466588796641e-251</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>3.6483137460252453e-05</v>
+        <v>0.00043511969246098865</v>
       </c>
       <c r="D254">
-        <v>1.8437968765457905e-57</v>
+        <v>1.58875898567465e-51</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.64036816912470629</v>
+        <v>0.93544949244221054</v>
       </c>
       <c r="B255">
-        <v>0.70451702742374966</v>
+        <v>0.93453564548098156</v>
       </c>
       <c r="C255">
-        <v>0.12865370470449478</v>
+        <v>0.01837049932016294</v>
       </c>
       <c r="D255">
-        <v>0.23476567992220687</v>
+        <v>0.050573150273409889</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.87134629529550534</v>
+        <v>0.98162950067983701</v>
       </c>
       <c r="B256">
-        <v>0.76523432007779302</v>
+        <v>0.94942684972659019</v>
       </c>
       <c r="C256">
-        <v>0.35963183087529371</v>
+        <v>0.064550507557789322</v>
       </c>
       <c r="D256">
-        <v>0.29548297257625034</v>
+        <v>0.065464354519018622</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B257">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C257">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D257">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B258">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C258">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D258">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="259">
@@ -5306,114 +5306,114 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.32948555195336804</v>
+        <v>0.88479367885335558</v>
       </c>
       <c r="B261">
-        <v>0.39176449699628735</v>
+        <v>0.86649363372397947</v>
       </c>
       <c r="C261">
-        <v>0.67051444804663196</v>
+        <v>0.11520632114664453</v>
       </c>
       <c r="D261">
-        <v>0.60823550300371265</v>
+        <v>0.13350636627602053</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.059993862010806226</v>
+        <v>0.018841508035241747</v>
       </c>
       <c r="B262">
-        <v>0.017003798713153169</v>
+        <v>0.0053293275795678607</v>
       </c>
       <c r="C262">
-        <v>0.059993862010806226</v>
+        <v>0.018841508035241747</v>
       </c>
       <c r="D262">
-        <v>0.017003798713153169</v>
+        <v>0.0053293275795678607</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>5.4919876952415629</v>
+        <v>46.959812197538</v>
       </c>
       <c r="B263">
-        <v>23.039822077712593</v>
+        <v>162.58967398552011</v>
       </c>
       <c r="C263">
-        <v>11.176384142862105</v>
+        <v>6.1144957681284859</v>
       </c>
       <c r="D263">
-        <v>35.770565934376556</v>
+        <v>25.051259147189853</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>5.1239638785415606e-08</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>2.3174823923428258e-93</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>2.6295481986942645e-27</v>
+        <v>1.0424622572644784e-09</v>
       </c>
       <c r="D264">
-        <v>3.4019411174391762e-177</v>
+        <v>1.4968402136328345e-130</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.21174717115847932</v>
+        <v>0.84785603141924049</v>
       </c>
       <c r="B265">
-        <v>0.35839442111272007</v>
+        <v>0.85604580636181804</v>
       </c>
       <c r="C265">
-        <v>0.55277606725174322</v>
+        <v>0.078268673712529407</v>
       </c>
       <c r="D265">
-        <v>0.57486542712014543</v>
+        <v>0.12305853891385907</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.44722393274825678</v>
+        <v>0.92173132628747068</v>
       </c>
       <c r="B266">
-        <v>0.42513457287985462</v>
+        <v>0.87694146108614091</v>
       </c>
       <c r="C266">
-        <v>0.7882528288415207</v>
+        <v>0.15214396858075965</v>
       </c>
       <c r="D266">
-        <v>0.64160557888727987</v>
+        <v>0.14395419363818199</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B267">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C267">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D267">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B268">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C268">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D268">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="269">
@@ -5432,44 +5432,44 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.99110706683695182</v>
+        <v>0.99864378411049404</v>
       </c>
       <c r="B271">
-        <v>0.98128798347785118</v>
+        <v>0.99592413890863907</v>
       </c>
       <c r="C271">
-        <v>0.008892933163048105</v>
+        <v>0.0013562158895059364</v>
       </c>
       <c r="D271">
-        <v>0.018712016522148781</v>
+        <v>0.0040758610913609701</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.0063496518566982648</v>
+        <v>0.00098642647684888405</v>
       </c>
       <c r="B272">
-        <v>0.0047808019858587014</v>
+        <v>0.0010501018253101925</v>
       </c>
       <c r="C272">
-        <v>0.0063496518566982648</v>
+        <v>0.00098642647684888405</v>
       </c>
       <c r="D272">
-        <v>0.0047808019858587014</v>
+        <v>0.0010501018253101925</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>156.08841070419166</v>
+        <v>1012.3854210611194</v>
       </c>
       <c r="B273">
-        <v>205.25593538080778</v>
+        <v>948.40720671488236</v>
       </c>
       <c r="C273">
-        <v>1.4005387009788459</v>
+        <v>1.3748778255003209</v>
       </c>
       <c r="D273">
-        <v>3.9139911206315796</v>
+        <v>3.8813960638121832</v>
       </c>
     </row>
     <row r="274">
@@ -5480,66 +5480,66 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>0.16168417895413573</v>
+        <v>0.16923112870197179</v>
       </c>
       <c r="D274">
-        <v>9.7375032546569601e-05</v>
+        <v>0.00010520050776495521</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.97864582991767746</v>
+        <v>0.99670995411379903</v>
       </c>
       <c r="B275">
-        <v>0.97190562558572879</v>
+        <v>0.99386547720700258</v>
       </c>
       <c r="C275">
-        <v>-0.0035683037562262952</v>
+        <v>-0.00057761410718906595</v>
       </c>
       <c r="D275">
-        <v>0.0093296586300263482</v>
+        <v>0.0020171993897244657</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1.0035683037562262</v>
+        <v>1.0005776141071889</v>
       </c>
       <c r="B276">
-        <v>0.99067034136997356</v>
+        <v>0.99798280061027556</v>
       </c>
       <c r="C276">
-        <v>0.021354170082322505</v>
+        <v>0.0032900458862009387</v>
       </c>
       <c r="D276">
-        <v>0.028094374414271213</v>
+        <v>0.0061345227929974749</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B277">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C277">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D277">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B278">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C278">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D278">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="279">
@@ -5558,114 +5558,114 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.92355014899957433</v>
+        <v>0.98815240269532745</v>
       </c>
       <c r="B281">
-        <v>0.89207184577509013</v>
+        <v>0.97650925279665635</v>
       </c>
       <c r="C281">
-        <v>0.076449851000425728</v>
+        <v>0.01184759730467254</v>
       </c>
       <c r="D281">
-        <v>0.10792815422490995</v>
+        <v>0.023490747203343588</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.017962487336289877</v>
+        <v>0.0029919564120340011</v>
       </c>
       <c r="B282">
-        <v>0.010892547372803329</v>
+        <v>0.0024818855355836058</v>
       </c>
       <c r="C282">
-        <v>0.017962487336289877</v>
+        <v>0.0029919564120340011</v>
       </c>
       <c r="D282">
-        <v>0.010892547372803329</v>
+        <v>0.0024818855355836058</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>51.41549339515538</v>
+        <v>330.26965189762194</v>
       </c>
       <c r="B283">
-        <v>81.89744925988829</v>
+        <v>393.45458877781567</v>
       </c>
       <c r="C283">
-        <v>4.2560837799992752</v>
+        <v>3.9598161447205942</v>
       </c>
       <c r="D283">
-        <v>9.9084401959441131</v>
+        <v>9.4648793695555469</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1.2842280909936092e-274</v>
+        <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>2.2902996979930421e-05</v>
+        <v>7.6053171443748939e-05</v>
       </c>
       <c r="D284">
-        <v>4.4870557104960161e-22</v>
+        <v>4.4137451918282938e-21</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.88829863987614888</v>
+        <v>0.9822868514411901</v>
       </c>
       <c r="B285">
-        <v>0.87069514410226767</v>
+        <v>0.97164366493002985</v>
       </c>
       <c r="C285">
-        <v>0.04119834187700027</v>
+        <v>0.0059820460505351459</v>
       </c>
       <c r="D285">
-        <v>0.08655145255208746</v>
+        <v>0.018625159336717125</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.95880165812299978</v>
+        <v>0.99401795394946479</v>
       </c>
       <c r="B286">
-        <v>0.9134485474479126</v>
+        <v>0.98137484066328284</v>
       </c>
       <c r="C286">
-        <v>0.11170136012385118</v>
+        <v>0.017713148558809934</v>
       </c>
       <c r="D286">
-        <v>0.12930485589773244</v>
+        <v>0.02835633506997005</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B287">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C287">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D287">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B288">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C288">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D288">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="289">
@@ -5684,114 +5684,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.72852140965404677</v>
+        <v>0.92556899119799285</v>
       </c>
       <c r="B291">
-        <v>0.80536285155362619</v>
+        <v>0.94195884470725666</v>
       </c>
       <c r="C291">
-        <v>0.27147859034595312</v>
+        <v>0.95938582106352954</v>
       </c>
       <c r="D291">
-        <v>0.19463714844637381</v>
+        <v>0.07443100880200712</v>
+      </c>
+      <c r="E291">
+        <v>0.058041155292743341</v>
+      </c>
+      <c r="F291">
+        <v>0.040614178936470513</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.01584781176622662</v>
+        <v>0.0068592625849922817</v>
       </c>
       <c r="B292">
-        <v>0.036905679655094288</v>
+        <v>0.010793989431168011</v>
       </c>
       <c r="C292">
-        <v>0.01584781176622662</v>
+        <v>0.0043527567439798735</v>
       </c>
       <c r="D292">
-        <v>0.036905679655094288</v>
+        <v>0.0068592625849922869</v>
+      </c>
+      <c r="E292">
+        <v>0.01079398943116802</v>
+      </c>
+      <c r="F292">
+        <v>0.0043527567439798692</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>45.96984242370948</v>
+        <v>134.93709851888318</v>
       </c>
       <c r="B293">
-        <v>21.822192656529431</v>
+        <v>87.266978600823762</v>
       </c>
       <c r="C293">
-        <v>17.13035177036258</v>
+        <v>220.40878401725948</v>
       </c>
       <c r="D293">
-        <v>5.2739077092028843</v>
+        <v>10.851167728271307</v>
+      </c>
+      <c r="E293">
+        <v>5.3771736263839101</v>
+      </c>
+      <c r="F293">
+        <v>9.3306796876812435</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>4.1746215711427176e-236</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>2.0844148529122106e-65</v>
+        <v>1.2696056536920853e-164</v>
       </c>
       <c r="C294">
-        <v>5.5014285912039132e-57</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>2.4576800757982543e-07</v>
+        <v>6.3835290253314756e-26</v>
+      </c>
+      <c r="E294">
+        <v>2.0436866958728059e-07</v>
+      </c>
+      <c r="F294">
+        <v>2.6850245413538439e-19</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.69741747029080869</v>
+        <v>0.91210767348249611</v>
       </c>
       <c r="B295">
-        <v>0.73275569564713838</v>
+        <v>0.92067795480376058</v>
       </c>
       <c r="C295">
-        <v>0.2403746509827151</v>
+        <v>0.95083545638558375</v>
       </c>
       <c r="D295">
-        <v>0.12202999253988603</v>
+        <v>0.060969691086510368</v>
+      </c>
+      <c r="E295">
+        <v>0.036760265389247218</v>
+      </c>
+      <c r="F295">
+        <v>0.032063814258524753</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.75962534901728485</v>
+        <v>0.9390303089134896</v>
       </c>
       <c r="B296">
-        <v>0.877970007460114</v>
+        <v>0.96323973461075274</v>
       </c>
       <c r="C296">
-        <v>0.30258252970919114</v>
+        <v>0.96793618574147533</v>
       </c>
       <c r="D296">
-        <v>0.26724430435286162</v>
+        <v>0.08789232651750388</v>
+      </c>
+      <c r="E296">
+        <v>0.079322045196239463</v>
+      </c>
+      <c r="F296">
+        <v>0.049164543614416273</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>879.60358246721103</v>
+        <v>935.8217441491912</v>
       </c>
       <c r="B297">
-        <v>321.4716484634518</v>
+        <v>205.94105735439496</v>
       </c>
       <c r="C297">
-        <v>879.60358246721103</v>
+        <v>541.29782288902436</v>
       </c>
       <c r="D297">
-        <v>321.47164846345191</v>
+        <v>935.82174414916813</v>
+      </c>
+      <c r="E297">
+        <v>205.94105735439231</v>
+      </c>
+      <c r="F297">
+        <v>541.29782288903789</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.962664614020962</v>
+        <v>1.9625021711443769</v>
       </c>
       <c r="B298">
-        <v>1.9673707837125667</v>
+        <v>1.9715500037499403</v>
       </c>
       <c r="C298">
-        <v>1.962664614020962</v>
+        <v>1.9643561955929292</v>
       </c>
       <c r="D298">
-        <v>1.9673707837125667</v>
+        <v>1.9625021711443769</v>
+      </c>
+      <c r="E298">
+        <v>1.9715500037499403</v>
+      </c>
+      <c r="F298">
+        <v>1.9643561955929292</v>
       </c>
     </row>
     <row r="299">
@@ -5807,117 +5855,171 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.40246165344332041</v>
+        <v>0.86807842171703542</v>
       </c>
       <c r="B301">
-        <v>0.2914934983209182</v>
+        <v>0.8771488805420764</v>
       </c>
       <c r="C301">
-        <v>0.59753834655667959</v>
+        <v>0.86913365813134258</v>
       </c>
       <c r="D301">
-        <v>0.7085065016790818</v>
+        <v>0.13192157828296452</v>
+      </c>
+      <c r="E301">
+        <v>0.12285111945792351</v>
+      </c>
+      <c r="F301">
+        <v>0.1308663418686575</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.017344882781989261</v>
+        <v>0.0084842958775142256</v>
       </c>
       <c r="B302">
-        <v>0.042520134418417177</v>
+        <v>0.014054572781808916</v>
       </c>
       <c r="C302">
-        <v>0.017344882781989261</v>
+        <v>0.0067930039115243123</v>
       </c>
       <c r="D302">
-        <v>0.042520134418417163</v>
+        <v>0.0084842958775142325</v>
+      </c>
+      <c r="E302">
+        <v>0.014054572781808919</v>
+      </c>
+      <c r="F302">
+        <v>0.0067930039115243106</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>23.203480732728401</v>
+        <v>102.31590626367567</v>
       </c>
       <c r="B303">
-        <v>6.8554227851796412</v>
+        <v>62.410212971922263</v>
       </c>
       <c r="C303">
-        <v>34.45041134421254</v>
+        <v>127.9454081657247</v>
       </c>
       <c r="D303">
-        <v>16.662847175106752</v>
+        <v>15.548912978458681</v>
+      </c>
+      <c r="E303">
+        <v>8.7410070277576768</v>
+      </c>
+      <c r="F303">
+        <v>19.264870677704625</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>2.1251337927920784e-93</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>3.0157585958762822e-11</v>
+        <v>4.7185341609849723e-283</v>
       </c>
       <c r="C304">
-        <v>1.3298397004999622e-165</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>7.7510271458637887e-47</v>
+        <v>1.3994520435115519e-51</v>
+      </c>
+      <c r="E304">
+        <v>1.8102160447959463e-17</v>
+      </c>
+      <c r="F304">
+        <v>3.036059293371756e-77</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.36841971760579834</v>
+        <v>0.85143953472147205</v>
       </c>
       <c r="B305">
-        <v>0.20788025352395284</v>
+        <v>0.84955310617866908</v>
       </c>
       <c r="C305">
-        <v>0.56349641071915757</v>
+        <v>0.85581319407374545</v>
       </c>
       <c r="D305">
-        <v>0.6248932568821165</v>
+        <v>0.11528269128740118</v>
+      </c>
+      <c r="E305">
+        <v>0.095255345094516164</v>
+      </c>
+      <c r="F305">
+        <v>0.11754587781106038</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.43650358928084249</v>
+        <v>0.88471730871259879</v>
       </c>
       <c r="B306">
-        <v>0.37510674311788356</v>
+        <v>0.90474465490548373</v>
       </c>
       <c r="C306">
-        <v>0.63158028239420161</v>
+        <v>0.8824541221889397</v>
       </c>
       <c r="D306">
-        <v>0.7921197464760471</v>
+        <v>0.14856046527852787</v>
+      </c>
+      <c r="E306">
+        <v>0.15044689382133086</v>
+      </c>
+      <c r="F306">
+        <v>0.14418680592625463</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>884.35165124774505</v>
+        <v>2019.4162966927718</v>
       </c>
       <c r="B307">
-        <v>367.56965610663576</v>
+        <v>677.23720168368618</v>
       </c>
       <c r="C307">
-        <v>884.35165124774528</v>
+        <v>2510.8823632456315</v>
       </c>
       <c r="D307">
-        <v>367.5696561066373</v>
+        <v>2019.4162966927029</v>
+      </c>
+      <c r="E307">
+        <v>677.23720168368072</v>
+      </c>
+      <c r="F307">
+        <v>2510.8823632456647</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9626500948666445</v>
+        <v>1.9611394081223716</v>
       </c>
       <c r="B308">
-        <v>1.9664388633905425</v>
+        <v>1.9634730127923243</v>
       </c>
       <c r="C308">
-        <v>1.9626500948666445</v>
+        <v>1.9609092282427523</v>
       </c>
       <c r="D308">
-        <v>1.9664388633905425</v>
+        <v>1.9611394081223716</v>
+      </c>
+      <c r="E308">
+        <v>1.9634730127923243</v>
+      </c>
+      <c r="F308">
+        <v>1.9609092282427523</v>
       </c>
     </row>
     <row r="309">
@@ -5933,47 +6035,71 @@
       <c r="D309">
         <v>0</v>
       </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.98089411375613289</v>
+        <v>0.9963182688776312</v>
       </c>
       <c r="B311">
-        <v>0.99124948280515157</v>
+        <v>0.99522057297592803</v>
       </c>
       <c r="C311">
-        <v>0.019105886243867214</v>
+        <v>0.99676143096178416</v>
       </c>
       <c r="D311">
-        <v>0.0087505171948483763</v>
+        <v>0.0036817311223687177</v>
+      </c>
+      <c r="E311">
+        <v>0.0047794270240720553</v>
+      </c>
+      <c r="F311">
+        <v>0.0032385690382158148</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.0048252810786343142</v>
+        <v>0.0016045916563351892</v>
       </c>
       <c r="B312">
-        <v>0.009100473939862963</v>
+        <v>0.003124153600422968</v>
       </c>
       <c r="C312">
-        <v>0.0048252810786343124</v>
+        <v>0.0011336159723013984</v>
       </c>
       <c r="D312">
-        <v>0.0091004739398629665</v>
+        <v>0.0016045916563351944</v>
+      </c>
+      <c r="E312">
+        <v>0.0031241536004229719</v>
+      </c>
+      <c r="F312">
+        <v>0.001133615972301393</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>203.28227470507326</v>
+        <v>620.91701956943655</v>
       </c>
       <c r="B313">
-        <v>108.92284175038009</v>
+        <v>318.55686379862652</v>
       </c>
       <c r="C313">
-        <v>3.9595385082260752</v>
+        <v>879.27609994610395</v>
       </c>
       <c r="D313">
-        <v>0.961545217608759</v>
+        <v>2.2944972372457704</v>
+      </c>
+      <c r="E313">
+        <v>1.5298309991624546</v>
+      </c>
+      <c r="F313">
+        <v>2.8568484542795245</v>
       </c>
     </row>
     <row r="314">
@@ -5981,69 +6107,99 @@
         <v>0</v>
       </c>
       <c r="B314">
-        <v>5.190911452108464e-107</v>
+        <v>0</v>
       </c>
       <c r="C314">
-        <v>8.1059913090083223e-05</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>0.33856164673292843</v>
+        <v>0.021883667903486378</v>
+      </c>
+      <c r="E314">
+        <v>0.1270382338836237</v>
+      </c>
+      <c r="F314">
+        <v>0.0043277959710407033</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.97142391777243398</v>
+        <v>0.99317108024111145</v>
       </c>
       <c r="B315">
-        <v>0.97319781719536713</v>
+        <v>0.98907429225761923</v>
       </c>
       <c r="C315">
-        <v>0.009635690260168351</v>
+        <v>0.99453809080292166</v>
       </c>
       <c r="D315">
-        <v>-0.0093011484149360529</v>
+        <v>0.00053454248584900235</v>
+      </c>
+      <c r="E315">
+        <v>-0.001366853694236711</v>
+      </c>
+      <c r="F315">
+        <v>0.0010152288793533457</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.99036430973983181</v>
+        <v>0.99946545751415095</v>
       </c>
       <c r="B316">
-        <v>1.0093011484149359</v>
+        <v>1.0013668536942368</v>
       </c>
       <c r="C316">
-        <v>0.028576082227566076</v>
+        <v>0.99898477112064665</v>
       </c>
       <c r="D316">
-        <v>0.026802182804632806</v>
+        <v>0.0068289197588884331</v>
+      </c>
+      <c r="E316">
+        <v>0.010925707742380822</v>
+      </c>
+      <c r="F316">
+        <v>0.0054619091970782834</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>894.16121591912474</v>
+        <v>1695.4036490087865</v>
       </c>
       <c r="B317">
-        <v>101.56933650579053</v>
+        <v>322.69151619631526</v>
       </c>
       <c r="C317">
-        <v>894.16121591912815</v>
+        <v>1801.6040275838293</v>
       </c>
       <c r="D317">
-        <v>101.56933650579028</v>
+        <v>1695.403649008548</v>
+      </c>
+      <c r="E317">
+        <v>322.69151619630753</v>
+      </c>
+      <c r="F317">
+        <v>1801.6040275841904</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9626205871470579</v>
+        <v>1.9613642038421999</v>
       </c>
       <c r="B318">
-        <v>1.9835962092822881</v>
+        <v>1.9673426804228304</v>
       </c>
       <c r="C318">
-        <v>1.9626205871470579</v>
+        <v>1.9612816096343362</v>
       </c>
       <c r="D318">
-        <v>1.9835962092822881</v>
+        <v>1.9613642038421999</v>
+      </c>
+      <c r="E318">
+        <v>1.9673426804228304</v>
+      </c>
+      <c r="F318">
+        <v>1.9612816096343362</v>
       </c>
     </row>
     <row r="319">
@@ -6059,47 +6215,71 @@
       <c r="D319">
         <v>0</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.88812282314649982</v>
+        <v>0.97314764093380413</v>
       </c>
       <c r="B321">
-        <v>0.91189416732030393</v>
+        <v>0.97169629758616782</v>
       </c>
       <c r="C321">
-        <v>0.11187717685350007</v>
+        <v>0.98238591999566993</v>
       </c>
       <c r="D321">
-        <v>0.088105832679696031</v>
+        <v>0.026852359066195753</v>
+      </c>
+      <c r="E321">
+        <v>0.028303702413832166</v>
+      </c>
+      <c r="F321">
+        <v>0.017614080004330172</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.011097950676813089</v>
+        <v>0.0041998178753139661</v>
       </c>
       <c r="B322">
-        <v>0.02681737658124974</v>
+        <v>0.0071867008340222192</v>
       </c>
       <c r="C322">
-        <v>0.011097950676813089</v>
+        <v>0.002819932159314168</v>
       </c>
       <c r="D322">
-        <v>0.026817376581249747</v>
+        <v>0.0041998178753139739</v>
+      </c>
+      <c r="E322">
+        <v>0.0071867008340222079</v>
+      </c>
+      <c r="F322">
+        <v>0.0028199321593141724</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>80.0258398158186</v>
+        <v>231.71186699638838</v>
       </c>
       <c r="B323">
-        <v>34.003854350089</v>
+        <v>135.20756186011062</v>
       </c>
       <c r="C323">
-        <v>10.080886112356282</v>
+        <v>348.37218219979968</v>
       </c>
       <c r="D323">
-        <v>3.2854008822510301</v>
+        <v>6.393696075258573</v>
+      </c>
+      <c r="E323">
+        <v>3.9383443206430684</v>
+      </c>
+      <c r="F323">
+        <v>6.2462779276981051</v>
       </c>
     </row>
     <row r="324">
@@ -6107,69 +6287,99 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>1.3810601132386253e-123</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>9.9153495708789e-23</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>0.0011023427881924719</v>
+        <v>2.3039562255165499e-10</v>
+      </c>
+      <c r="E324">
+        <v>9.3108247899577578e-05</v>
+      </c>
+      <c r="F324">
+        <v>5.9117093194315504e-10</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.86634229492717219</v>
+        <v>0.96490794166787963</v>
       </c>
       <c r="B325">
-        <v>0.85918368708345816</v>
+        <v>0.9575781054546082</v>
       </c>
       <c r="C325">
-        <v>0.090096648634172383</v>
+        <v>0.97685311575285183</v>
       </c>
       <c r="D325">
-        <v>0.035395352442850296</v>
+        <v>0.01861265980027129</v>
+      </c>
+      <c r="E325">
+        <v>0.014185510282272546</v>
+      </c>
+      <c r="F325">
+        <v>0.012081275761512028</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.90990335136582745</v>
+        <v>0.98138734019972862</v>
       </c>
       <c r="B326">
-        <v>0.9646046475571497</v>
+        <v>0.98581448971772745</v>
       </c>
       <c r="C326">
-        <v>0.13365770507282776</v>
+        <v>0.98791872423848803</v>
       </c>
       <c r="D326">
-        <v>0.14081631291654176</v>
+        <v>0.035092058332120216</v>
+      </c>
+      <c r="E326">
+        <v>0.042421894545391789</v>
+      </c>
+      <c r="F326">
+        <v>0.023146884247148315</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>910.76694265273386</v>
+        <v>1215.0939692668655</v>
       </c>
       <c r="B327">
-        <v>427.04716511354741</v>
+        <v>525.48815666950827</v>
       </c>
       <c r="C327">
-        <v>910.76694265273454</v>
+        <v>1146.9174397192235</v>
       </c>
       <c r="D327">
-        <v>427.04716511354565</v>
+        <v>1215.0939692667837</v>
+      </c>
+      <c r="E327">
+        <v>525.4881566695293</v>
+      </c>
+      <c r="F327">
+        <v>1146.9174397191573</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9625720868298389</v>
+        <v>1.9619182332539766</v>
       </c>
       <c r="B328">
-        <v>1.9655345509709554</v>
+        <v>1.9644886377798529</v>
       </c>
       <c r="C328">
-        <v>1.9625720868298389</v>
+        <v>1.9620345207750536</v>
       </c>
       <c r="D328">
-        <v>1.9655345509709554</v>
+        <v>1.9619182332539766</v>
+      </c>
+      <c r="E328">
+        <v>1.9644886377798529</v>
+      </c>
+      <c r="F328">
+        <v>1.9620345207750536</v>
       </c>
     </row>
     <row r="329">
@@ -6185,165 +6395,171 @@
       <c r="D329">
         <v>0</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.6544672862651244</v>
+        <v>0.92893576926176658</v>
       </c>
       <c r="B331">
-        <v>0.774573132183908</v>
+        <v>0.94520130242555189</v>
       </c>
       <c r="C331">
-        <v>0.72892583294043689</v>
+        <v>0.95015239026020559</v>
       </c>
       <c r="D331">
-        <v>0.34553271373487565</v>
+        <v>0.071064230738233397</v>
       </c>
       <c r="E331">
-        <v>0.22542686781609195</v>
+        <v>0.054798697574448184</v>
       </c>
       <c r="F331">
-        <v>0.27107416705956311</v>
+        <v>0.049847609739794393</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.046369521748429565</v>
+        <v>0.010193659797093219</v>
       </c>
       <c r="B332">
-        <v>0.023783159673707192</v>
+        <v>0.0063260150229026988</v>
       </c>
       <c r="C332">
-        <v>0.021219252660434316</v>
+        <v>0.0044728629890255856</v>
       </c>
       <c r="D332">
-        <v>0.046369521748429565</v>
+        <v>0.010193659797093219</v>
       </c>
       <c r="E332">
-        <v>0.023783159673707192</v>
+        <v>0.0063260150229026988</v>
       </c>
       <c r="F332">
-        <v>0.021219252660434316</v>
+        <v>0.0044728629890255856</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>14.114169428268683</v>
+        <v>91.128778844145657</v>
       </c>
       <c r="B333">
-        <v>32.568134041509026</v>
+        <v>149.41496329103646</v>
       </c>
       <c r="C333">
-        <v>34.35209734316426</v>
+        <v>212.4259993188829</v>
       </c>
       <c r="D333">
-        <v>7.4517204557232271</v>
+        <v>6.9714147963323025</v>
       </c>
       <c r="E333">
-        <v>9.4784238473286759</v>
+        <v>8.6624355737466683</v>
       </c>
       <c r="F333">
-        <v>12.774915846353599</v>
+        <v>11.14445263852218</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>3.8111103327439464e-41</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>4.6123396682051527e-156</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>7.3131703763062322e-168</v>
+        <v>0</v>
       </c>
       <c r="D334">
-        <v>2.0973426725073241e-13</v>
+        <v>3.5466816639182683e-12</v>
       </c>
       <c r="E334">
-        <v>2.059817874605485e-20</v>
+        <v>6.1533734762281764e-18</v>
       </c>
       <c r="F334">
-        <v>1.4675960105779339e-34</v>
+        <v>1.6515692955142184e-28</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.5634667701138204</v>
+        <v>0.90895171008008802</v>
       </c>
       <c r="B335">
-        <v>0.72789851220921453</v>
+        <v>0.93279952905678354</v>
       </c>
       <c r="C335">
-        <v>0.68728289871047898</v>
+        <v>0.94138361040454321</v>
       </c>
       <c r="D335">
-        <v>0.25453219758357171</v>
+        <v>0.051080171556554851</v>
       </c>
       <c r="E335">
-        <v>0.17875224784139851</v>
+        <v>0.042396924205679851</v>
       </c>
       <c r="F335">
-        <v>0.22943123282960526</v>
+        <v>0.041078829884131973</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.7454678024164284</v>
+        <v>0.94891982844344513</v>
       </c>
       <c r="B336">
-        <v>0.82124775215860146</v>
+        <v>0.95760307579432025</v>
       </c>
       <c r="C336">
-        <v>0.7705687671703948</v>
+        <v>0.95892117011586797</v>
       </c>
       <c r="D336">
-        <v>0.4365332298861796</v>
+        <v>0.091048289919911943</v>
       </c>
       <c r="E336">
-        <v>0.27210148779078541</v>
+        <v>0.067200470943216517</v>
       </c>
       <c r="F336">
-        <v>0.31271710128952096</v>
+        <v>0.058616389595456814</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B337">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C337">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D337">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E337">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F337">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B338">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C338">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D338">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E338">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F338">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="339">
@@ -6368,162 +6584,162 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.50075248770110359</v>
+        <v>0.88806275185364281</v>
       </c>
       <c r="B341">
-        <v>0.34860143678160915</v>
+        <v>0.84428643684433258</v>
       </c>
       <c r="C341">
-        <v>0.3908435766195667</v>
+        <v>0.88418655768265053</v>
       </c>
       <c r="D341">
-        <v>0.49924751229889636</v>
+        <v>0.11193724814635719</v>
       </c>
       <c r="E341">
-        <v>0.65139856321839074</v>
+        <v>0.15571356315566742</v>
       </c>
       <c r="F341">
-        <v>0.60915642338043319</v>
+        <v>0.1158134423173495</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.047415118994052791</v>
+        <v>0.011591929366032443</v>
       </c>
       <c r="B342">
-        <v>0.027096440448989879</v>
+        <v>0.0099000915231290936</v>
       </c>
       <c r="C342">
-        <v>0.023237808847310467</v>
+        <v>0.0063684298101282918</v>
       </c>
       <c r="D342">
-        <v>0.047415118994052791</v>
+        <v>0.011591929366032443</v>
       </c>
       <c r="E342">
-        <v>0.027096440448989879</v>
+        <v>0.0099000915231290936</v>
       </c>
       <c r="F342">
-        <v>0.023237808847310467</v>
+        <v>0.0063684298101282918</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>10.561029863995749</v>
+        <v>76.610435054574452</v>
       </c>
       <c r="B343">
-        <v>12.865211481849991</v>
+        <v>85.280669867734858</v>
       </c>
       <c r="C343">
-        <v>16.819295622392673</v>
+        <v>138.83902061328342</v>
       </c>
       <c r="D343">
-        <v>10.529289452200178</v>
+        <v>9.6564812130726292</v>
       </c>
       <c r="E343">
-        <v>24.04000497573378</v>
+        <v>15.728497336805578</v>
       </c>
       <c r="F343">
-        <v>26.21402161378639</v>
+        <v>18.185556843723216</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1.0461899531626231e-24</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>5.4517020389981622e-35</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>1.1796249157738937e-55</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>1.4146621590957306e-24</v>
+        <v>7.1649042275503076e-22</v>
       </c>
       <c r="E344">
-        <v>8.6374308260896674e-100</v>
+        <v>1.9300517590802537e-54</v>
       </c>
       <c r="F344">
-        <v>5.803144807443153e-114</v>
+        <v>1.3282927987446662e-71</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.40769997952032999</v>
+        <v>0.86533746897274</v>
       </c>
       <c r="B345">
-        <v>0.29542447972565977</v>
+        <v>0.82487790067181266</v>
       </c>
       <c r="C345">
-        <v>0.34523921151950593</v>
+        <v>0.87170163266521361</v>
       </c>
       <c r="D345">
-        <v>0.40619500411812276</v>
+        <v>0.089211965265454385</v>
       </c>
       <c r="E345">
-        <v>0.59822160616244136</v>
+        <v>0.1363050269831475</v>
       </c>
       <c r="F345">
-        <v>0.56355205828037236</v>
+        <v>0.10332851729991262</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.59380499588187718</v>
+        <v>0.91078803473454562</v>
       </c>
       <c r="B346">
-        <v>0.40177839383755853</v>
+        <v>0.8636949730168525</v>
       </c>
       <c r="C346">
-        <v>0.43644794171962747</v>
+        <v>0.89667148270008745</v>
       </c>
       <c r="D346">
-        <v>0.5923000204796699</v>
+        <v>0.13466253102726</v>
       </c>
       <c r="E346">
-        <v>0.70457552027434012</v>
+        <v>0.17512209932818734</v>
       </c>
       <c r="F346">
-        <v>0.65476078848049402</v>
+        <v>0.12829836733478636</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B347">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C347">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D347">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E347">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F347">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B348">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C348">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D348">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E348">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F348">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="349">
@@ -6548,62 +6764,62 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.99379287993617871</v>
+        <v>0.99827077691811739</v>
       </c>
       <c r="B351">
-        <v>0.97838448275862078</v>
+        <v>0.99468252321981421</v>
       </c>
       <c r="C351">
-        <v>0.98157977988275014</v>
+        <v>0.99703902059807148</v>
       </c>
       <c r="D351">
-        <v>0.0062071200638213007</v>
+        <v>0.0017292230818826565</v>
       </c>
       <c r="E351">
-        <v>0.02161551724137931</v>
+        <v>0.0053174767801857587</v>
       </c>
       <c r="F351">
-        <v>0.018420220117249822</v>
+        <v>0.0029609794019283819</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.0045257681705594185</v>
+        <v>0.0012375262892271809</v>
       </c>
       <c r="B352">
-        <v>0.0081136027703058861</v>
+        <v>0.0020223403834821042</v>
       </c>
       <c r="C352">
-        <v>0.0064188021126924486</v>
+        <v>0.0010642557788388006</v>
       </c>
       <c r="D352">
-        <v>0.0045257681705594185</v>
+        <v>0.0012375262892271809</v>
       </c>
       <c r="E352">
-        <v>0.0081136027703058861</v>
+        <v>0.0020223403834821042</v>
       </c>
       <c r="F352">
-        <v>0.0064188021126924486</v>
+        <v>0.0010642557788388006</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>219.58545875171032</v>
+        <v>806.66631942140361</v>
       </c>
       <c r="B353">
-        <v>120.58570162435193</v>
+        <v>491.84723370214806</v>
       </c>
       <c r="C353">
-        <v>152.92258004679536</v>
+        <v>936.84153792984932</v>
       </c>
       <c r="D353">
-        <v>1.3715064117069113</v>
+        <v>1.3973223008963582</v>
       </c>
       <c r="E353">
-        <v>2.6641083934362237</v>
+        <v>2.6293678470832025</v>
       </c>
       <c r="F353">
-        <v>2.8697286181834363</v>
+        <v>2.7822065529764646</v>
       </c>
     </row>
     <row r="354">
@@ -6617,93 +6833,93 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>0.17054652798194472</v>
+        <v>0.16237887204142468</v>
       </c>
       <c r="E354">
-        <v>0.0078522708745472122</v>
+        <v>0.0085806525210236594</v>
       </c>
       <c r="F354">
-        <v>0.0042009165764154734</v>
+        <v>0.0054193787845328153</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.98491102772005146</v>
+        <v>0.99584468078629917</v>
       </c>
       <c r="B355">
-        <v>0.96246147962845607</v>
+        <v>0.99071784608584423</v>
       </c>
       <c r="C355">
-        <v>0.9689828350943801</v>
+        <v>0.99495261091871146</v>
       </c>
       <c r="D355">
-        <v>-0.0026747321523059482</v>
+        <v>-0.00069687304993558906</v>
       </c>
       <c r="E355">
-        <v>0.0056925141112145784</v>
+        <v>0.0013527996462157493</v>
       </c>
       <c r="F355">
-        <v>0.0058232753288797335</v>
+        <v>0.00087456972256840177</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1.002674732152306</v>
+        <v>1.0006968730499357</v>
       </c>
       <c r="B356">
-        <v>0.99430748588878548</v>
+        <v>0.99864720035378418</v>
       </c>
       <c r="C356">
-        <v>0.99417672467112017</v>
+        <v>0.9991254302774315</v>
       </c>
       <c r="D356">
-        <v>0.01508897227994855</v>
+        <v>0.0041553192137009018</v>
       </c>
       <c r="E356">
-        <v>0.037538520371544037</v>
+        <v>0.009282153914155768</v>
       </c>
       <c r="F356">
-        <v>0.031017164905619912</v>
+        <v>0.0050473890812883625</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B357">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C357">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D357">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E357">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F357">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B358">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C358">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D358">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E358">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F358">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="359">
@@ -6728,162 +6944,162 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.85098734609759341</v>
+        <v>0.96683231785944534</v>
       </c>
       <c r="B361">
-        <v>0.89844094827586196</v>
+        <v>0.97530963059892639</v>
       </c>
       <c r="C361">
-        <v>0.89865081055724616</v>
+        <v>0.9816831559131034</v>
       </c>
       <c r="D361">
-        <v>0.14901265390240659</v>
+        <v>0.033167682140554482</v>
       </c>
       <c r="E361">
-        <v>0.10155905172413796</v>
+        <v>0.02469036940107357</v>
       </c>
       <c r="F361">
-        <v>0.1013491894427538</v>
+        <v>0.018316844086896662</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.033140121577024881</v>
+        <v>0.0067006442666406561</v>
       </c>
       <c r="B362">
-        <v>0.017906739710518579</v>
+        <v>0.0045351030026265868</v>
       </c>
       <c r="C362">
-        <v>0.014422338317776385</v>
+        <v>0.0027817099878060438</v>
       </c>
       <c r="D362">
-        <v>0.033140121577024881</v>
+        <v>0.0067006442666406561</v>
       </c>
       <c r="E362">
-        <v>0.017906739710518579</v>
+        <v>0.0045351030026265868</v>
       </c>
       <c r="F362">
-        <v>0.014422338317776385</v>
+        <v>0.0027817099878060438</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>25.678461804061669</v>
+        <v>144.2894562651008</v>
       </c>
       <c r="B363">
-        <v>50.173340474040046</v>
+        <v>215.0578785165537</v>
       </c>
       <c r="C363">
-        <v>62.309647073637557</v>
+        <v>352.90636342984283</v>
       </c>
       <c r="D363">
-        <v>4.4964425841368332</v>
+        <v>4.9499243387207867</v>
       </c>
       <c r="E363">
-        <v>5.6715545859239391</v>
+        <v>5.4442797411158459</v>
       </c>
       <c r="F363">
-        <v>7.0272369992759725</v>
+        <v>6.5847425386509464</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1.8872770812446181e-110</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>2.4802568187511648e-267</v>
+        <v>0</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
       <c r="D364">
-        <v>7.7783402231216979e-06</v>
+        <v>7.6689420111949131e-07</v>
       </c>
       <c r="E364">
-        <v>1.8863576520058556e-08</v>
+        <v>5.4508663765863749e-08</v>
       </c>
       <c r="F364">
-        <v>4.060119890151791e-12</v>
+        <v>5.0261516317317907e-11</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.78594962185303907</v>
+        <v>0.95369610630781931</v>
       </c>
       <c r="B365">
-        <v>0.86329884426441761</v>
+        <v>0.96641883292630426</v>
       </c>
       <c r="C365">
-        <v>0.87034686905561032</v>
+        <v>0.9762297801747416</v>
       </c>
       <c r="D365">
-        <v>0.083974929657852193</v>
+        <v>0.020031470588928443</v>
       </c>
       <c r="E365">
-        <v>0.066416947712693616</v>
+        <v>0.015799571728451478</v>
       </c>
       <c r="F365">
-        <v>0.073045247941117983</v>
+        <v>0.012863468348534857</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.91602507034214775</v>
+        <v>0.97996852941107138</v>
       </c>
       <c r="B366">
-        <v>0.93358305228730631</v>
+        <v>0.98420042827154852</v>
       </c>
       <c r="C366">
-        <v>0.926954752058882</v>
+        <v>0.9871365316514652</v>
       </c>
       <c r="D366">
-        <v>0.21405037814696098</v>
+        <v>0.04630389369218052</v>
       </c>
       <c r="E366">
-        <v>0.13670115573558228</v>
+        <v>0.033581167073695663</v>
       </c>
       <c r="F366">
-        <v>0.12965313094438963</v>
+        <v>0.023770219825258468</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B367">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C367">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D367">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E367">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F367">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B368">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C368">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D368">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E368">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F368">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="369">
@@ -6908,162 +7124,162 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.78608507834757835</v>
+        <v>0.96293862567278621</v>
       </c>
       <c r="B371">
-        <v>0.71651241961825052</v>
+        <v>0.94863023305438643</v>
       </c>
       <c r="C371">
-        <v>0.74301567401409507</v>
+        <v>0.9395733834586466</v>
       </c>
       <c r="D371">
-        <v>0.21391492165242165</v>
+        <v>0.03706137432721375</v>
       </c>
       <c r="E371">
-        <v>0.28348758038174948</v>
+        <v>0.05136976694561346</v>
       </c>
       <c r="F371">
-        <v>0.25698432598590493</v>
+        <v>0.060426616541353381</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.042349928903403576</v>
+        <v>0.0090020809180184555</v>
       </c>
       <c r="B372">
-        <v>0.030074790127208161</v>
+        <v>0.0062068920398123074</v>
       </c>
       <c r="C372">
-        <v>0.017738657760428805</v>
+        <v>0.0046440913718358446</v>
       </c>
       <c r="D372">
-        <v>0.042349928903403576</v>
+        <v>0.0090020809180184555</v>
       </c>
       <c r="E372">
-        <v>0.030074790127208161</v>
+        <v>0.0062068920398123074</v>
       </c>
       <c r="F372">
-        <v>0.017738657760428805</v>
+        <v>0.0046440913718358446</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>18.561662290875827</v>
+        <v>106.96844812240911</v>
       </c>
       <c r="B373">
-        <v>23.824353107290136</v>
+        <v>152.83498197965633</v>
       </c>
       <c r="C373">
-        <v>41.886803615525295</v>
+        <v>202.31586939841497</v>
       </c>
       <c r="D373">
-        <v>5.0511282354296885</v>
+        <v>4.1169785813669098</v>
       </c>
       <c r="E373">
-        <v>9.4260867385166893</v>
+        <v>8.27624624628832</v>
       </c>
       <c r="F373">
-        <v>14.487247539054653</v>
+        <v>13.011504663282773</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1.0404642266883503e-65</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>2.1290708948344502e-98</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>1.1994879329391068e-216</v>
+        <v>0</v>
       </c>
       <c r="D374">
-        <v>5.2814675089563129e-07</v>
+        <v>3.900793066041998e-05</v>
       </c>
       <c r="E374">
-        <v>3.2513376853755042e-20</v>
+        <v>1.6159756219022509e-16</v>
       </c>
       <c r="F374">
-        <v>4.6885623148137583e-43</v>
+        <v>4.3656869189408634e-38</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.70297304173677866</v>
+        <v>0.94529058547870015</v>
       </c>
       <c r="B375">
-        <v>0.65749043014063047</v>
+        <v>0.9364619931555751</v>
       </c>
       <c r="C375">
-        <v>0.70820343202488312</v>
+        <v>0.93046892061926922</v>
       </c>
       <c r="D375">
-        <v>0.13080288504162191</v>
+        <v>0.019413334133127725</v>
       </c>
       <c r="E375">
-        <v>0.22446559090412943</v>
+        <v>0.039201527046802138</v>
       </c>
       <c r="F375">
-        <v>0.222172083996693</v>
+        <v>0.051322153701976014</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.86919711495837804</v>
+        <v>0.98058666586687226</v>
       </c>
       <c r="B376">
-        <v>0.77553440909587057</v>
+        <v>0.96079847295319776</v>
       </c>
       <c r="C376">
-        <v>0.77782791600330703</v>
+        <v>0.94867784629802399</v>
       </c>
       <c r="D376">
-        <v>0.2970269582632214</v>
+        <v>0.054709414521299779</v>
       </c>
       <c r="E376">
-        <v>0.34250956985936953</v>
+        <v>0.063538006844424774</v>
       </c>
       <c r="F376">
-        <v>0.29179656797511683</v>
+        <v>0.069531079380730748</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B377">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C377">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D377">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E377">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F377">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B378">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C378">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D378">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E378">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F378">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="379">
@@ -7088,162 +7304,162 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.34503333333333336</v>
+        <v>0.87233452775934528</v>
       </c>
       <c r="B381">
-        <v>0.40595570582831481</v>
+        <v>0.89161695462470669</v>
       </c>
       <c r="C381">
-        <v>0.37502645299145299</v>
+        <v>0.85330215690741995</v>
       </c>
       <c r="D381">
-        <v>0.6549666666666667</v>
+        <v>0.12766547224065472</v>
       </c>
       <c r="E381">
-        <v>0.59404429417168525</v>
+        <v>0.10838304537529338</v>
       </c>
       <c r="F381">
-        <v>0.62497354700854701</v>
+        <v>0.14669784309257994</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.047080450757006419</v>
+        <v>0.01687380083552302</v>
       </c>
       <c r="B382">
-        <v>0.032359559448175035</v>
+        <v>0.0085439550029108215</v>
       </c>
       <c r="C382">
-        <v>0.019610462837588629</v>
+        <v>0.0066901010141288504</v>
       </c>
       <c r="D382">
-        <v>0.047080450757006419</v>
+        <v>0.01687380083552302</v>
       </c>
       <c r="E382">
-        <v>0.032359559448175035</v>
+        <v>0.0085439550029108215</v>
       </c>
       <c r="F382">
-        <v>0.019610462837588629</v>
+        <v>0.0066901010141288504</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>7.3285902701767611</v>
+        <v>51.697571653381814</v>
       </c>
       <c r="B383">
-        <v>12.545155519761233</v>
+        <v>104.35646656857902</v>
       </c>
       <c r="C383">
-        <v>19.123794073468567</v>
+        <v>127.54697651131542</v>
       </c>
       <c r="D383">
-        <v>13.911648171065904</v>
+        <v>7.5658989628401407</v>
       </c>
       <c r="E383">
-        <v>18.357613771691419</v>
+        <v>12.68534833556223</v>
       </c>
       <c r="F383">
-        <v>31.86939299620304</v>
+        <v>21.927597622632035</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>5.0305653099470472e-13</v>
+        <v>0</v>
       </c>
       <c r="B384">
-        <v>1.7842927783033392e-33</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>4.7311578368021647e-69</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>4.0230594294622157e-40</v>
+        <v>4.5601305142264048e-14</v>
       </c>
       <c r="E384">
-        <v>1.6568122799493092e-64</v>
+        <v>2.5833893889595693e-36</v>
       </c>
       <c r="F384">
-        <v>1.9902645183284585e-151</v>
+        <v>8.0450876980676013e-102</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.25263761394749051</v>
+        <v>0.83925445237630125</v>
       </c>
       <c r="B385">
-        <v>0.34244984031197562</v>
+        <v>0.87486704283419781</v>
       </c>
       <c r="C385">
-        <v>0.33654078022846035</v>
+        <v>0.84018661477054357</v>
       </c>
       <c r="D385">
-        <v>0.56257094728082391</v>
+        <v>0.094585396857610693</v>
       </c>
       <c r="E385">
-        <v>0.53053842865534606</v>
+        <v>0.091633133584784476</v>
       </c>
       <c r="F385">
-        <v>0.58648787424555437</v>
+        <v>0.13358230095570359</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.4374290527191762</v>
+        <v>0.90541460314238931</v>
       </c>
       <c r="B386">
-        <v>0.46946157134465399</v>
+        <v>0.90836686641521558</v>
       </c>
       <c r="C386">
-        <v>0.41351212575444563</v>
+        <v>0.86641769904429633</v>
       </c>
       <c r="D386">
-        <v>0.74736238605250949</v>
+        <v>0.16074554762369875</v>
       </c>
       <c r="E386">
-        <v>0.65755015968802444</v>
+        <v>0.12513295716580228</v>
       </c>
       <c r="F386">
-        <v>0.66345921977153965</v>
+        <v>0.15981338522945629</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B387">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C387">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D387">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E387">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F387">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B388">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C388">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D388">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E388">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F388">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="389">
@@ -7268,62 +7484,62 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.98003433048433042</v>
+        <v>0.99698804836688049</v>
       </c>
       <c r="B391">
-        <v>0.97072765496726399</v>
+        <v>0.99479248803818032</v>
       </c>
       <c r="C391">
-        <v>0.98870927875243653</v>
+        <v>0.99732913419913416</v>
       </c>
       <c r="D391">
-        <v>0.019965669515669516</v>
+        <v>0.0030119516331195166</v>
       </c>
       <c r="E391">
-        <v>0.029272345032735968</v>
+        <v>0.0052075119618196046</v>
       </c>
       <c r="F391">
-        <v>0.011290721247563352</v>
+        <v>0.0026708658008658013</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.01176109554847176</v>
+        <v>0.0018543029736083434</v>
       </c>
       <c r="B392">
-        <v>0.010873210079895905</v>
+        <v>0.0019715386010697492</v>
       </c>
       <c r="C392">
-        <v>0.0042400051786267989</v>
+        <v>0.0010072966539044794</v>
       </c>
       <c r="D392">
-        <v>0.01176109554847176</v>
+        <v>0.0018543029736083434</v>
       </c>
       <c r="E392">
-        <v>0.010873210079895905</v>
+        <v>0.0019715386010697492</v>
       </c>
       <c r="F392">
-        <v>0.0042400051786267989</v>
+        <v>0.0010072966539044794</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>83.328489803118416</v>
+        <v>537.66189374480257</v>
       </c>
       <c r="B393">
-        <v>89.277007234698559</v>
+        <v>504.57672373161233</v>
       </c>
       <c r="C393">
-        <v>233.18586584194873</v>
+        <v>990.10468299809281</v>
       </c>
       <c r="D393">
-        <v>1.697602866449279</v>
+        <v>1.6243039438471427</v>
       </c>
       <c r="E393">
-        <v>2.6921529904824766</v>
+        <v>2.641344155774596</v>
       </c>
       <c r="F393">
-        <v>2.6629027022132208</v>
+        <v>2.651518587412161</v>
       </c>
     </row>
     <row r="394">
@@ -7337,93 +7553,93 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0.089915860743659481</v>
+        <v>0.10437419018319238</v>
       </c>
       <c r="E394">
-        <v>0.0072262556941578484</v>
+        <v>0.0082835581074681818</v>
       </c>
       <c r="F394">
-        <v>0.0078802438440398279</v>
+        <v>0.0080384317188330629</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.95695309684076835</v>
+        <v>0.99335279850540104</v>
       </c>
       <c r="B395">
-        <v>0.94938890286927413</v>
+        <v>0.99092740475435559</v>
       </c>
       <c r="C395">
-        <v>0.98038823843995349</v>
+        <v>0.99535438947095778</v>
       </c>
       <c r="D395">
-        <v>-0.0031155641278925138</v>
+        <v>-0.00062329822835992168</v>
       </c>
       <c r="E395">
-        <v>0.0079335929347460928</v>
+        <v>0.0013424286779948353</v>
       </c>
       <c r="F395">
-        <v>0.0029696809350803315</v>
+        <v>0.00069612107268936805</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1.0031155641278924</v>
+        <v>1.0006232982283598</v>
       </c>
       <c r="B396">
-        <v>0.99206640706525384</v>
+        <v>0.99865757132200506</v>
       </c>
       <c r="C396">
-        <v>0.99703031906491957</v>
+        <v>0.99930387892731054</v>
       </c>
       <c r="D396">
-        <v>0.043046903159231542</v>
+        <v>0.0066472014945989548</v>
       </c>
       <c r="E396">
-        <v>0.050611097130725841</v>
+        <v>0.0090725952456443739</v>
       </c>
       <c r="F396">
-        <v>0.019611761560046372</v>
+        <v>0.004645610529042235</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B397">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C397">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D397">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E397">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F397">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B398">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C398">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D398">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E398">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F398">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="399">
@@ -7448,162 +7664,162 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.88884725783475793</v>
+        <v>0.98219694462876961</v>
       </c>
       <c r="B401">
-        <v>0.90680421958617075</v>
+        <v>0.98341780473482243</v>
       </c>
       <c r="C401">
-        <v>0.89324859424201519</v>
+        <v>0.97487582289055985</v>
       </c>
       <c r="D401">
-        <v>0.11115274216524218</v>
+        <v>0.017803055371230551</v>
       </c>
       <c r="E401">
-        <v>0.09319578041382931</v>
+        <v>0.016582195265177381</v>
       </c>
       <c r="F401">
-        <v>0.10675140575798472</v>
+        <v>0.025124177109440267</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.029598768927787556</v>
+        <v>0.0057276956227674094</v>
       </c>
       <c r="B402">
-        <v>0.018735602777391454</v>
+        <v>0.0035189264998517402</v>
       </c>
       <c r="C402">
-        <v>0.012528309549828294</v>
+        <v>0.0030653621987851098</v>
       </c>
       <c r="D402">
-        <v>0.029598768927787556</v>
+        <v>0.0057276956227674094</v>
       </c>
       <c r="E402">
-        <v>0.018735602777391454</v>
+        <v>0.0035189264998517402</v>
       </c>
       <c r="F402">
-        <v>0.012528309549828294</v>
+        <v>0.0030653621987851098</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>30.029872526228655</v>
+        <v>171.48204257303195</v>
       </c>
       <c r="B403">
-        <v>48.400055784723705</v>
+        <v>279.46528714829816</v>
       </c>
       <c r="C403">
-        <v>71.298413460278653</v>
+        <v>318.0295702990436</v>
       </c>
       <c r="D403">
-        <v>3.7553163929358937</v>
+        <v>3.1082404764079934</v>
       </c>
       <c r="E403">
-        <v>4.9742611177842715</v>
+        <v>4.7122880417866142</v>
       </c>
       <c r="F403">
-        <v>8.5208148260870367</v>
+        <v>8.1961528459500457</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>3.2852215658747944e-139</v>
+        <v>0</v>
       </c>
       <c r="B404">
-        <v>8.7090574084111023e-257</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
       <c r="D404">
-        <v>0.00018383298003192859</v>
+        <v>0.0018926510904901945</v>
       </c>
       <c r="E404">
-        <v>7.7937705686547931e-07</v>
+        <v>2.5161596125266942e-06</v>
       </c>
       <c r="F404">
-        <v>6.2916002198457672e-17</v>
+        <v>3.1269953291338468e-16</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.83075946334584738</v>
+        <v>0.97096814058994296</v>
       </c>
       <c r="B405">
-        <v>0.87003546591218728</v>
+        <v>0.97651916020196616</v>
       </c>
       <c r="C405">
-        <v>0.86866169766535817</v>
+        <v>0.96886636399030601</v>
       </c>
       <c r="D405">
-        <v>0.05306494767633161</v>
+        <v>0.0065742513324039149</v>
       </c>
       <c r="E405">
-        <v>0.056427026739845829</v>
+        <v>0.0096835507323210883</v>
       </c>
       <c r="F405">
-        <v>0.082164509181327713</v>
+        <v>0.019114718209186397</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.94693505232366848</v>
+        <v>0.99342574866759625</v>
       </c>
       <c r="B406">
-        <v>0.94357297326015421</v>
+        <v>0.9903164492676787</v>
       </c>
       <c r="C406">
-        <v>0.91783549081867222</v>
+        <v>0.98088528179081369</v>
       </c>
       <c r="D406">
-        <v>0.16924053665415276</v>
+        <v>0.02903185941005719</v>
       </c>
       <c r="E406">
-        <v>0.12996453408781278</v>
+        <v>0.023480839798033674</v>
       </c>
       <c r="F406">
-        <v>0.13133830233464172</v>
+        <v>0.031133636009694137</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B407">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="C407">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="D407">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="E407">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="F407">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B408">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="C408">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="D408">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="E408">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="F408">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="409">
@@ -7628,66 +7844,66 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.73989624444650981</v>
+        <v>0.94551498444948723</v>
       </c>
       <c r="B411">
-        <v>0.26010375555349008</v>
+        <v>0.054485015550512703</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.014307567773025507</v>
+        <v>0.0033618397276593041</v>
       </c>
       <c r="B412">
-        <v>0.014307567773025507</v>
+        <v>0.0033618397276593041</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>51.713628492570116</v>
+        <v>281.24927451785641</v>
       </c>
       <c r="B413">
-        <v>18.179452977596348</v>
+        <v>16.20690454165349</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>2.3571171379365516e-276</v>
+        <v>0</v>
       </c>
       <c r="B414">
-        <v>1.8355456160079796e-63</v>
+        <v>1.3097190996620493e-57</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.71181754095504712</v>
+        <v>0.9389242991201594</v>
       </c>
       <c r="B415">
-        <v>0.23202505206202739</v>
+        <v>0.047894330221184833</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.7679749479379725</v>
+        <v>0.95210566977881506</v>
       </c>
       <c r="B416">
-        <v>0.28818245904495277</v>
+        <v>0.061075700879840572</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B417">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B418">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="419">
@@ -7700,66 +7916,66 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.38584098168974812</v>
+        <v>0.87046003319506382</v>
       </c>
       <c r="B421">
-        <v>0.61415901831025188</v>
+        <v>0.12953996680493601</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.015788975079111849</v>
+        <v>0.0048227355329924547</v>
       </c>
       <c r="B422">
-        <v>0.015788975079111849</v>
+        <v>0.0048227355329924547</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>24.437367198089984</v>
+        <v>180.49093242625995</v>
       </c>
       <c r="B423">
-        <v>38.8979661588521</v>
+        <v>26.860267563657565</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>2.3137912547186271e-102</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>1.4993958157416529e-197</v>
+        <v>1.5382786935056322e-148</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.35485500582623997</v>
+        <v>0.86100534918291072</v>
       </c>
       <c r="B425">
-        <v>0.58317304244674373</v>
+        <v>0.1200852827927829</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.41682695755325627</v>
+        <v>0.87991471720721692</v>
       </c>
       <c r="B426">
-        <v>0.64514499417376003</v>
+        <v>0.13899465081708912</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B427">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B428">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="429">
@@ -7772,26 +7988,26 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.98233611952783695</v>
+        <v>0.99637827383971889</v>
       </c>
       <c r="B431">
-        <v>0.017663880472162843</v>
+        <v>0.0036217261602810428</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0042475005938017304</v>
+        <v>0.00088306832975447599</v>
       </c>
       <c r="B432">
-        <v>0.0042475005938017304</v>
+        <v>0.00088306832975447599</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>231.27392164731774</v>
+        <v>1128.3139030891834</v>
       </c>
       <c r="B433">
-        <v>4.1586528552672348</v>
+        <v>4.1012977572052778</v>
       </c>
     </row>
     <row r="434">
@@ -7799,39 +8015,39 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>3.496042706869578e-05</v>
+        <v>4.1738700358306288e-05</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.97400036940977541</v>
+        <v>0.99464707129671159</v>
       </c>
       <c r="B435">
-        <v>0.009328130354101332</v>
+        <v>0.0018905236172737023</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.99067186964589848</v>
+        <v>0.99810947638272618</v>
       </c>
       <c r="B436">
-        <v>0.025999630590224355</v>
+        <v>0.0053529287032883831</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B437">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B438">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="439">
@@ -7844,26 +8060,26 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.89192665433590468</v>
+        <v>0.97767420219609702</v>
       </c>
       <c r="B441">
-        <v>0.10807334566409517</v>
+        <v>0.022325797803902925</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.010043216505242218</v>
+        <v>0.0021853900663523725</v>
       </c>
       <c r="B442">
-        <v>0.010043216505242218</v>
+        <v>0.0021853900663523725</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>88.808864557519911</v>
+        <v>447.36828324104624</v>
       </c>
       <c r="B443">
-        <v>10.760830019713758</v>
+        <v>10.215932682977204</v>
       </c>
     </row>
     <row r="444">
@@ -7871,39 +8087,39 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>1.5409292101629542e-25</v>
+        <v>2.913804152959479e-24</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.87221677053001245</v>
+        <v>0.97338987592953952</v>
       </c>
       <c r="B445">
-        <v>0.088363461858202985</v>
+        <v>0.018041471537345373</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.9116365381417969</v>
+        <v>0.98195852846265452</v>
       </c>
       <c r="B446">
-        <v>0.12778322946998735</v>
+        <v>0.026610124070460477</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
       <c r="B447">
-        <v>934.00638977635788</v>
+        <v>4984.0012026458207</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
       <c r="B448">
-        <v>1.9625071107054488</v>
+        <v>1.9604400754454365</v>
       </c>
     </row>
     <row r="449">
